--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>№</t>
   </si>
@@ -35,10 +38,34 @@
     <t>срочность</t>
   </si>
   <si>
-    <t>Прочитай и отметь</t>
-  </si>
-  <si>
     <t>Отметка о выполнении</t>
+  </si>
+  <si>
+    <t>для кого</t>
+  </si>
+  <si>
+    <t>Галя</t>
+  </si>
+  <si>
+    <t>Прочитай и отметь (Тест)</t>
+  </si>
+  <si>
+    <t>Изменить наименования вью в дополнительной Layout row</t>
+  </si>
+  <si>
+    <t>Продумать дизайн</t>
+  </si>
+  <si>
+    <t>Паша</t>
+  </si>
+  <si>
+    <t>Добавить расчет метод go() для создаваемых строк.</t>
+  </si>
+  <si>
+    <t>Создать коллекцию и поисковик для результатов строк</t>
+  </si>
+  <si>
+    <t>Выделять цветом Лучший и худший вариант</t>
   </si>
 </sst>
 </file>
@@ -357,45 +384,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TWICE_A_DAY\QuickComparison\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
@@ -15,11 +10,11 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>№</t>
   </si>
@@ -65,14 +60,44 @@
     <t>Создать коллекцию и поисковик для результатов строк</t>
   </si>
   <si>
-    <t>Выделять цветом Лучший и худший вариант</t>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Добавить ListView для разных единиц</t>
+  </si>
+  <si>
+    <t>Добавить кнопку для рассчета стоимости некоторого количества</t>
+  </si>
+  <si>
+    <t>Изменить значения в графе количество и цена на дробные</t>
+  </si>
+  <si>
+    <t>Изменить поля UI (заменить spinner на button; добавить кнопки очистить, добавить; добавить кнопку удалить строчку; добавить еще одну пустую строчку; объединить строчки процент и стоимость за единицу в результат)</t>
+  </si>
+  <si>
+    <t>Поставить строчку рассчета некоторого количесвта сверху</t>
+  </si>
+  <si>
+    <t>Придумать текст для рассчета некоторого количества</t>
+  </si>
+  <si>
+    <t>Заполнить LinerView для разных единиц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавить картнику на кнопку убрать строчку, ругается на параметр left </t>
+  </si>
+  <si>
+    <t>Выделять цветом Лучший худший и средний вариант</t>
+  </si>
+  <si>
+    <t>Изменить ссылки на несуществующие ID (изменила ID, программа ругается на java-файлы, ссылки на несуществующие ID)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -164,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,35 +404,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -414,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -427,8 +456,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -441,65 +473,211 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" hidden="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
+    </row>
+    <row r="9" spans="1:5" hidden="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" hidden="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E16">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TWICE_A_DAY\QuickComparison\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$16</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -91,16 +97,76 @@
   </si>
   <si>
     <t>Изменить ссылки на несуществующие ID (изменила ID, программа ругается на java-файлы, ссылки на несуществующие ID)</t>
+  </si>
+  <si>
+    <t>результат</t>
+  </si>
+  <si>
+    <t>цена</t>
+  </si>
+  <si>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>цена за ед.</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Дороже</t>
+  </si>
+  <si>
+    <t>экономия</t>
+  </si>
+  <si>
+    <t>Добавить поле экономия, изменить поле количество на кол-во, переименовать результат</t>
+  </si>
+  <si>
+    <t>Продумать цвета для полей и записать в Colors</t>
+  </si>
+  <si>
+    <t>Переделать цвета на ссылки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сделать отступы в ячейках</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -127,10 +193,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,29 +485,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,7 +541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -477,7 +558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -491,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -505,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -519,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -533,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" hidden="1">
+    <row r="8" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -550,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -567,7 +648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1">
+    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -584,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -601,7 +682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -615,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -628,8 +709,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -643,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -657,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -668,6 +752,62 @@
         <v>20</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
     </row>
@@ -680,4 +820,203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <f>1-O4</f>
+        <v>0.14275000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <f>34.29/40</f>
+        <v>0.85724999999999996</v>
+      </c>
+      <c r="Q4">
+        <f>40/34.29</f>
+        <v>1.1665208515602217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
+        <v>200</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9/E9</f>
+        <v>40</v>
+      </c>
+      <c r="G9" s="5">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="4">
+        <v>150</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ref="F10:F11" si="0">D10/E10</f>
+        <v>30</v>
+      </c>
+      <c r="G10" s="7">
+        <v>66.67</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>75</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="M10" s="4">
+        <f>30/40</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="10">
+        <v>100</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>50</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="4">
+        <f>20/30</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TWICE_A_DAY\QuickComparison\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
@@ -16,11 +11,11 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$20</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -135,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,29 +480,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,7 +536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -558,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -572,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -586,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -600,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -614,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="60" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -631,7 +626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -648,7 +643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -665,7 +660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -682,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -695,8 +690,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -713,7 +711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -727,7 +725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -741,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -754,8 +752,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -768,8 +769,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -783,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -796,8 +800,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -812,7 +819,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16">
+  <autoFilter ref="A1:E20">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
@@ -823,21 +830,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -861,7 +868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>200</v>
       </c>
@@ -881,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="I3">
         <v>10</v>
       </c>
@@ -890,7 +897,7 @@
         <v>0.14275000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="I4">
         <v>15</v>
       </c>
@@ -906,22 +913,22 @@
         <v>1.1665208515602217</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="M5">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="M6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="M7">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -932,7 +939,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="4" customFormat="1">
       <c r="D9" s="4">
         <v>200</v>
       </c>
@@ -956,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="4" customFormat="1">
       <c r="D10" s="4">
         <v>150</v>
       </c>
@@ -984,7 +991,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="4" customFormat="1">
       <c r="D11" s="4">
         <v>100</v>
       </c>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TWICE_A_DAY\QuickComparison\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
@@ -13,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$20</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -125,13 +130,16 @@
   </si>
   <si>
     <t xml:space="preserve"> сделать отступы в ячейках</t>
+  </si>
+  <si>
+    <t>добавить корневой лаяут и поместить туда вывести rl_main и row c кнопками</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,29 +488,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C28" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -536,7 +544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -553,7 +561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -567,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -581,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -595,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -609,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" hidden="1">
+    <row r="8" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -626,7 +634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -643,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1">
+    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -660,7 +668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -677,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" hidden="1">
+    <row r="12" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -694,7 +702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -711,7 +719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -725,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -739,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" hidden="1">
+    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -756,7 +764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" hidden="1">
+    <row r="17" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -773,7 +781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -787,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -804,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -815,6 +823,20 @@
         <v>33</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
     </row>
@@ -830,21 +852,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -868,7 +890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -888,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I3">
         <v>10</v>
       </c>
@@ -897,7 +919,7 @@
         <v>0.14275000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I4">
         <v>15</v>
       </c>
@@ -913,22 +935,22 @@
         <v>1.1665208515602217</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M5">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M7">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -939,7 +961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="4" customFormat="1">
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="4">
         <v>200</v>
       </c>
@@ -963,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1">
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="4">
         <v>150</v>
       </c>
@@ -991,7 +1013,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1">
+    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="4">
         <v>100</v>
       </c>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TWICE_A_DAY\QuickComparison\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
@@ -16,11 +11,11 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -133,13 +128,37 @@
   </si>
   <si>
     <t>добавить корневой лаяут и поместить туда вывести rl_main и row c кнопками</t>
+  </si>
+  <si>
+    <t>В ячейке Цена за ед. сократить количество знаков после запятой до сотых</t>
+  </si>
+  <si>
+    <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
+  </si>
+  <si>
+    <t>Сделать фокус на ячейку et_price1</t>
+  </si>
+  <si>
+    <t>Продумать размер шрифта</t>
+  </si>
+  <si>
+    <t>Продумать кнопку удалить строчку</t>
+  </si>
+  <si>
+    <t>Сделать кнопки добавить и очистить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выделить наиболее удачный вариант #FFECB3, менее удачный #FFD54F </t>
+  </si>
+  <si>
+    <t>Сделать границы ячеек цена за ед. и экономия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,29 +507,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C27:C28"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -544,7 +563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -561,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -575,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -589,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -603,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -617,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="60" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -634,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -651,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -668,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -685,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -702,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -719,7 +738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -733,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -747,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -764,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -781,7 +800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -795,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -812,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -826,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -839,9 +858,133 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" hidden="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" hidden="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E20">
+  <autoFilter ref="A1:E29">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
@@ -852,21 +995,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +1033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>200</v>
       </c>
@@ -910,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="I3">
         <v>10</v>
       </c>
@@ -919,7 +1062,7 @@
         <v>0.14275000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="I4">
         <v>15</v>
       </c>
@@ -935,22 +1078,22 @@
         <v>1.1665208515602217</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="M5">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="M6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="M7">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -961,7 +1104,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="4" customFormat="1">
       <c r="D9" s="4">
         <v>200</v>
       </c>
@@ -985,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="4" customFormat="1">
       <c r="D10" s="4">
         <v>150</v>
       </c>
@@ -1013,7 +1156,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="4" customFormat="1">
       <c r="D11" s="4">
         <v>100</v>
       </c>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -148,10 +148,10 @@
     <t>Сделать кнопки добавить и очистить</t>
   </si>
   <si>
-    <t xml:space="preserve">Выделить наиболее удачный вариант #FFECB3, менее удачный #FFD54F </t>
-  </si>
-  <si>
     <t>Сделать границы ячеек цена за ед. и экономия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выделить наиболее удачный вариант цвнтом colorVariant1, менее удачный вариант colorVariant2 </t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,7 +519,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>1</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TWICE_A_DAY\QuickComparison\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
@@ -13,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$29</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -152,13 +157,22 @@
   </si>
   <si>
     <t xml:space="preserve">Выделить наиболее удачный вариант цвнтом colorVariant1, менее удачный вариант colorVariant2 </t>
+  </si>
+  <si>
+    <t>Изменить кнопку удалить в Row</t>
+  </si>
+  <si>
+    <t>Сделать отступы</t>
+  </si>
+  <si>
+    <t>Сделать защиту от отрицательных чисел</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,29 +521,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,7 +577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -580,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -594,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -608,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -622,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -636,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" hidden="1">
+    <row r="8" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -653,7 +667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -670,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1">
+    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -687,7 +701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -704,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" hidden="1">
+    <row r="12" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -721,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -738,7 +752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -752,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -766,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" hidden="1">
+    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -783,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" hidden="1">
+    <row r="17" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -800,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -814,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -831,7 +845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -845,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" hidden="1">
+    <row r="21" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -862,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" hidden="1">
+    <row r="22" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -879,7 +893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" hidden="1">
+    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -893,7 +907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -907,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -924,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -941,7 +955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -955,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -969,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -980,6 +994,48 @@
         <v>41</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
     </row>
@@ -995,21 +1051,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1033,7 +1089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -1053,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I3">
         <v>10</v>
       </c>
@@ -1062,7 +1118,7 @@
         <v>0.14275000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I4">
         <v>15</v>
       </c>
@@ -1078,22 +1134,22 @@
         <v>1.1665208515602217</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M5">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M7">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -1104,7 +1160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="4" customFormat="1">
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="4">
         <v>200</v>
       </c>
@@ -1128,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1">
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="4">
         <v>150</v>
       </c>
@@ -1156,7 +1212,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1">
+    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="4">
         <v>100</v>
       </c>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TWICE_A_DAY\QuickComparison\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
@@ -16,11 +11,11 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$33</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>№</t>
   </si>
@@ -166,13 +161,16 @@
   </si>
   <si>
     <t>Сделать защиту от отрицательных чисел</t>
+  </si>
+  <si>
+    <t>При выделении вариантов цветом сделать чтобы поле ед. также закрашивалось</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,29 +519,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -577,7 +575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -594,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -608,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -622,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -636,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -650,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="60" hidden="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -667,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -684,7 +682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -701,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -718,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -735,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -752,7 +750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -766,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -780,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -797,7 +795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -814,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -828,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -845,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -858,8 +856,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -876,7 +877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -893,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" hidden="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -907,7 +908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -921,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -938,7 +939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -955,7 +956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -969,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28">
         <v>27</v>
       </c>
@@ -983,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -996,8 +997,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1010,8 +1014,11 @@
       <c r="D30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1024,8 +1031,11 @@
       <c r="D31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1039,8 +1049,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="30">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E29">
+  <autoFilter ref="A1:E33">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
@@ -1051,21 +1075,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1089,7 +1113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>200</v>
       </c>
@@ -1109,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="I3">
         <v>10</v>
       </c>
@@ -1118,7 +1142,7 @@
         <v>0.14275000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="I4">
         <v>15</v>
       </c>
@@ -1134,22 +1158,22 @@
         <v>1.1665208515602217</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="M5">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="M6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="M7">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -1160,7 +1184,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="4" customFormat="1">
       <c r="D9" s="4">
         <v>200</v>
       </c>
@@ -1184,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="4" customFormat="1">
       <c r="D10" s="4">
         <v>150</v>
       </c>
@@ -1212,7 +1236,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="4" customFormat="1">
       <c r="D11" s="4">
         <v>100</v>
       </c>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TWICE_A_DAY\QuickComparison\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Лист1!$A$1:$E$33</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -91,7 +94,7 @@
     <t>Заполнить LinerView для разных единиц</t>
   </si>
   <si>
-    <t>Добавить картнику на кнопку убрать строчку, ругается на параметр left </t>
+    <t>Добавить картнику на кнопку убрать строчку, ругается на параметр left</t>
   </si>
   <si>
     <t>Добавить поле экономия, изменить поле количество на кол-во, переименовать результат</t>
@@ -103,7 +106,7 @@
     <t>Переделать цвета на ссылки</t>
   </si>
   <si>
-    <t> сделать отступы в ячейках</t>
+    <t>сделать отступы в ячейках</t>
   </si>
   <si>
     <t>добавить корневой лаяут и поместить туда вывести rl_main и row c кнопками</t>
@@ -145,7 +148,7 @@
     <t>При выделении вариантов цветом сделать чтобы поле ед. также закрашивалось</t>
   </si>
   <si>
-    <t>Паша </t>
+    <t>Паша</t>
   </si>
   <si>
     <t>При повороте экрана Очистка не работает</t>
@@ -170,18 +173,22 @@
   </si>
   <si>
     <t>экономия</t>
+  </si>
+  <si>
+    <t>Восстановить Runnable</t>
+  </si>
+  <si>
+    <t>Сделать удалялку через сдвиг строки</t>
+  </si>
+  <si>
+    <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -190,22 +197,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -213,7 +205,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -221,7 +213,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF385724"/>
       <name val="Calibri"/>
@@ -229,16 +221,22 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -246,101 +244,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -399,36 +339,307 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF385724"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7165991902834"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.5748987854251"/>
+    <col min="1" max="2" width="8.5703125"/>
+    <col min="3" max="3" width="57" style="1"/>
+    <col min="4" max="4" width="10.42578125"/>
+    <col min="5" max="5" width="26.7109375"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -445,761 +656,790 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E33">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Паша"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="**none**" val=""/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Паша"/>
-      </customFilters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="true" max="9" min="7" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.5748987854251"/>
+    <col min="1" max="6" width="8.5703125"/>
+    <col min="7" max="9" width="0" hidden="1"/>
+    <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="F1" s="0" t="s">
+      <c r="D1" s="16"/>
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>200</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5">
         <v>0.08</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>40</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="0" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="O3" s="0" t="n">
-        <f aca="false">1-O4</f>
-        <v>0.14275</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="0" t="n">
+      <c r="O3">
+        <f>1-O4</f>
+        <v>0.14275000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>100</v>
       </c>
-      <c r="O4" s="0" t="n">
-        <f aca="false">34.29/40</f>
-        <v>0.85725</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <f aca="false">40/34.29</f>
-        <v>1.16652085156022</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M5" s="0" t="n">
+      <c r="O4">
+        <f>34.29/40</f>
+        <v>0.85724999999999996</v>
+      </c>
+      <c r="Q4">
+        <f>40/34.29</f>
+        <v>1.1665208515602217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M5">
         <v>99</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M6" s="0" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M7" s="0" t="n">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M7">
         <v>97</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="0" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8">
         <v>96</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="7" t="n">
+    <row r="9" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6">
         <v>200</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <f aca="false">D9/E9</f>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <f>D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="7">
         <v>50</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="8">
         <v>0.5</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="7">
         <v>100</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="n">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
         <v>150</v>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <f aca="false">D10/E10</f>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <f>D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="9">
         <v>66.67</v>
       </c>
-      <c r="H10" s="11" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="I10" s="10" t="n">
+      <c r="H10" s="10">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I10" s="9">
         <v>75</v>
       </c>
-      <c r="J10" s="12" t="n">
+      <c r="J10" s="11">
         <v>0.25</v>
       </c>
-      <c r="M10" s="7" t="n">
-        <f aca="false">30/40</f>
+      <c r="M10" s="6">
+        <f>30/40</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="n">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
         <v>100</v>
       </c>
-      <c r="E11" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <f aca="false">D11/E11</f>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12">
+        <f>D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="13" t="n">
+      <c r="G11" s="12">
         <v>100</v>
       </c>
-      <c r="H11" s="13" t="n">
+      <c r="H11" s="12">
         <v>0</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="12">
         <v>50</v>
       </c>
-      <c r="J11" s="14" t="n">
+      <c r="J11" s="13">
         <v>0.5</v>
       </c>
-      <c r="M11" s="7" t="n">
-        <f aca="false">20/30</f>
-        <v>0.666666666666667</v>
+      <c r="M11" s="6">
+        <f>20/30</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -12,15 +12,19 @@
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -37,6 +41,15 @@
     <t>Отметка о выполнении</t>
   </si>
   <si>
+    <t>Паша</t>
+  </si>
+  <si>
+    <t>Сделать скролВью и удаление сдвигом скролВью Вправо</t>
+  </si>
+  <si>
+    <t>Перерисовать raw_layot</t>
+  </si>
+  <si>
     <t>Галя</t>
   </si>
   <si>
@@ -49,112 +62,118 @@
     <t>Изменить наименования вью в дополнительной Layout row</t>
   </si>
   <si>
+    <t>Добавить расчет метод go() для создаваемых строк.</t>
+  </si>
+  <si>
+    <t>отменено</t>
+  </si>
+  <si>
+    <t>Создать коллекцию и поисковик для результатов строк</t>
+  </si>
+  <si>
+    <t>Выделять цветом Лучший вариант</t>
+  </si>
+  <si>
+    <t>Изменить поля UI (заменить spinner на button; добавить кнопки очистить, добавить; добавить кнопку удалить строчку; добавить еще одну пустую строчку; объединить строчки процент и стоимость за единицу в результат)</t>
+  </si>
+  <si>
+    <t>Добавить ListView для разных единиц</t>
+  </si>
+  <si>
+    <t>Добавить кнопку для рассчета стоимости некоторого количества</t>
+  </si>
+  <si>
+    <t>Изменить ссылки на несуществующие ID (изменила ID, программа ругается на java-файлы, ссылки на несуществующие ID)</t>
+  </si>
+  <si>
+    <t>Поставить строчку рассчета некоторого количесвта сверху</t>
+  </si>
+  <si>
+    <t>Добавить картнику на кнопку убрать строчку, ругается на параметр left</t>
+  </si>
+  <si>
+    <t>Добавить поле экономия, изменить поле количество на кол-во, переименовать результат</t>
+  </si>
+  <si>
+    <t>Продумать цвета для полей и записать в Colors</t>
+  </si>
+  <si>
+    <t>Переделать цвета на ссылки</t>
+  </si>
+  <si>
+    <t>сделать отступы в ячейках</t>
+  </si>
+  <si>
+    <t>добавить корневой лаяут и поместить туда вывести rl_main и row c кнопками</t>
+  </si>
+  <si>
+    <t>Продумать размер шрифта</t>
+  </si>
+  <si>
+    <t>Продумать кнопку удалить строчку</t>
+  </si>
+  <si>
+    <t>Сделать кнопки добавить и очистить</t>
+  </si>
+  <si>
+    <t>Сделать границы ячеек цена за ед. и экономия</t>
+  </si>
+  <si>
+    <t>Сделать защиту от отрицательных чисел</t>
+  </si>
+  <si>
+    <t>При повороте экрана Очистка не работает</t>
+  </si>
+  <si>
+    <t>Восстановить Runnable</t>
+  </si>
+  <si>
+    <t>Сделать удалялку через сдвиг строки</t>
+  </si>
+  <si>
+    <t>Проверить наличие одного потока при повороте экрана</t>
+  </si>
+  <si>
+    <t>Пустые строки не должны учитываться при подсчете результата</t>
+  </si>
+  <si>
     <t>Продумать дизайн</t>
   </si>
   <si>
-    <t>Паша</t>
-  </si>
-  <si>
-    <t>Добавить расчет метод go() для создаваемых строк.</t>
-  </si>
-  <si>
-    <t>отменено</t>
-  </si>
-  <si>
-    <t>Создать коллекцию и поисковик для результатов строк</t>
-  </si>
-  <si>
-    <t>Выделять цветом Лучший вариант</t>
-  </si>
-  <si>
-    <t>Изменить поля UI (заменить spinner на button; добавить кнопки очистить, добавить; добавить кнопку удалить строчку; добавить еще одну пустую строчку; объединить строчки процент и стоимость за единицу в результат)</t>
-  </si>
-  <si>
-    <t>Добавить ListView для разных единиц</t>
-  </si>
-  <si>
-    <t>Добавить кнопку для рассчета стоимости некоторого количества</t>
-  </si>
-  <si>
     <t>Изменить значения в графе количество и цена на дробные</t>
   </si>
   <si>
-    <t>Изменить ссылки на несуществующие ID (изменила ID, программа ругается на java-файлы, ссылки на несуществующие ID)</t>
-  </si>
-  <si>
-    <t>Поставить строчку рассчета некоторого количесвта сверху</t>
-  </si>
-  <si>
     <t>Придумать текст для рассчета некоторого количества</t>
   </si>
   <si>
     <t>Заполнить LinerView для разных единиц</t>
   </si>
   <si>
-    <t>Добавить картнику на кнопку убрать строчку, ругается на параметр left</t>
-  </si>
-  <si>
-    <t>Добавить поле экономия, изменить поле количество на кол-во, переименовать результат</t>
-  </si>
-  <si>
-    <t>Продумать цвета для полей и записать в Colors</t>
-  </si>
-  <si>
-    <t>Переделать цвета на ссылки</t>
-  </si>
-  <si>
-    <t>сделать отступы в ячейках</t>
-  </si>
-  <si>
-    <t>добавить корневой лаяут и поместить туда вывести rl_main и row c кнопками</t>
-  </si>
-  <si>
     <t>В ячейке Цена за ед. сократить количество знаков после запятой до сотых</t>
   </si>
   <si>
+    <t>Сделать фокус на ячейку et_price1</t>
+  </si>
+  <si>
+    <t>Выделить наиболее удачный вариант цвнтом colorVariant1</t>
+  </si>
+  <si>
+    <t>Изменить кнопку удалить в Row</t>
+  </si>
+  <si>
+    <t>Сделать отступы</t>
+  </si>
+  <si>
+    <t>При выделении вариантов цветом сделать чтобы поле edPrice и edQuantity также закрашивалось</t>
+  </si>
+  <si>
+    <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
+  </si>
+  <si>
+    <t>Разобраться почкму закрашивается кнопка ед</t>
+  </si>
+  <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
-  </si>
-  <si>
-    <t>Сделать фокус на ячейку et_price1</t>
-  </si>
-  <si>
-    <t>Продумать размер шрифта</t>
-  </si>
-  <si>
-    <t>Продумать кнопку удалить строчку</t>
-  </si>
-  <si>
-    <t>Сделать кнопки добавить и очистить</t>
-  </si>
-  <si>
-    <t>Выделить наиболее удачный вариант цвнтом colorVariant1</t>
-  </si>
-  <si>
-    <t>Сделать границы ячеек цена за ед. и экономия</t>
-  </si>
-  <si>
-    <t>Изменить кнопку удалить в Row</t>
-  </si>
-  <si>
-    <t>Сделать отступы</t>
-  </si>
-  <si>
-    <t>Сделать защиту от отрицательных чисел</t>
-  </si>
-  <si>
-    <t>При выделении вариантов цветом сделать чтобы поле ед. также закрашивалось</t>
-  </si>
-  <si>
-    <t>При повороте экрана Очистка не работает</t>
-  </si>
-  <si>
-    <t>Восстановить Runnable</t>
-  </si>
-  <si>
-    <t>Сделать удалялку через сдвиг строки</t>
-  </si>
-  <si>
-    <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
   </si>
   <si>
     <t>цена</t>
@@ -283,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,6 +325,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -429,10 +452,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,94 +484,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -557,32 +577,32 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -591,15 +611,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -608,32 +628,32 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -642,15 +662,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -659,43 +679,49 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -703,16 +729,13 @@
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -721,15 +744,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
@@ -737,13 +760,16 @@
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -752,15 +778,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -769,15 +795,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -786,142 +812,145 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -929,16 +958,13 @@
       <c r="D30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -947,29 +973,29 @@
         <v>2</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -978,63 +1004,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="5" t="s">
+    <row r="34" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="D34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>7</v>
+      <c r="D35" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -1042,9 +1065,85 @@
       <c r="D37" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E37" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E37">
+  <autoFilter ref="A1:E42">
     <filterColumn colId="1">
       <customFilters and="true">
         <customFilter operator="equal" val="Паша"/>
@@ -1087,26 +1186,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="7"/>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,7 +1218,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -1171,10 +1270,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -1187,20 +1286,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="10" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1211,20 +1310,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="12" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="12" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="13" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="14" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -1239,20 +1338,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="15" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="14" t="n">
+      <c r="I11" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="15" t="n">
+      <c r="J11" s="16" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -12,19 +12,19 @@
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>№</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Сделать скролВью и удаление сдвигом скролВью Вправо, доработать удалялку</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>Перерисовать raw_layot</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
     <t>Прочитай и отметь (Тест)</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Изменить наименования вью в дополнительной Layout row</t>
   </si>
   <si>
@@ -170,7 +170,7 @@
     <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
   </si>
   <si>
-    <t>Разобраться почкму закрашивается кнопка ед</t>
+    <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
   </si>
   <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Сделать невозможным двойной запуск приложения</t>
+  </si>
+  <si>
+    <t>Сделать анимацию удалялки</t>
+  </si>
+  <si>
+    <t>Сохранить учет строки в случае когда число очень маленькое</t>
   </si>
   <si>
     <t>цена</t>
@@ -263,7 +269,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +280,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,6 +350,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -431,7 +451,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF3399FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
@@ -452,19 +472,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,18 +509,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -526,16 +545,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -552,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -620,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -637,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -654,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -705,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +732,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -722,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -744,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -753,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,7 +780,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
@@ -770,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,7 +797,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -787,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,7 +814,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -804,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +831,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -821,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +848,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -843,7 +862,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -852,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -973,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -982,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -1004,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -1027,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1085,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -1075,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,7 +1102,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -1092,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,21 +1128,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>39</v>
       </c>
@@ -1142,41 +1164,47 @@
         <v>22</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="7" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="E43" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="7" t="n">
         <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,6 +1219,34 @@
       </c>
       <c r="D45" s="0" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1257,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1213,7 +1268,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A1:E1 F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1225,26 +1280,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="F1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="F1" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,7 +1312,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="11" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -1309,10 +1364,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -1325,20 +1380,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="12" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1349,20 +1404,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="14" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="14" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="15" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="14" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="14" t="n">
+      <c r="J10" s="16" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -1377,20 +1432,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="17" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="15" t="n">
+      <c r="I11" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="16" t="n">
+      <c r="J11" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>№</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Сохранить учет строки в случае когда число очень маленькое</t>
+  </si>
+  <si>
+    <t>Разобраться что если ввести большие числа</t>
   </si>
   <si>
     <t>цена</t>
@@ -477,10 +480,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1247,6 +1250,20 @@
       </c>
       <c r="D47" s="0" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1285,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A1:E1 F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1280,26 +1297,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="9"/>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,10 +1381,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
   <si>
     <t>№</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>Разобраться что если ввести большие числа</t>
+  </si>
+  <si>
+    <t>Паша </t>
+  </si>
+  <si>
+    <t>Разобраться с запуском на разных API</t>
+  </si>
+  <si>
+    <t>Как останавливать поток</t>
   </si>
   <si>
     <t>цена</t>
@@ -480,10 +489,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -529,18 +538,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,6 +1276,34 @@
       </c>
       <c r="D48" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1297,26 +1337,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="9"/>
       <c r="F1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,10 +1421,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -41,6 +42,9 @@
     <t>Отметка о выполнении</t>
   </si>
   <si>
+    <t>На утверждении</t>
+  </si>
+  <si>
     <t>Паша</t>
   </si>
   <si>
@@ -137,6 +141,18 @@
     <t>Пустые строки не должны учитываться при подсчете результата</t>
   </si>
   <si>
+    <t>Паша </t>
+  </si>
+  <si>
+    <t>Сменить цвет выделяемого поля</t>
+  </si>
+  <si>
+    <t>жду ответ о Гали</t>
+  </si>
+  <si>
+    <t>Как останавливать поток</t>
+  </si>
+  <si>
     <t>Продумать дизайн</t>
   </si>
   <si>
@@ -170,37 +186,40 @@
     <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
   </si>
   <si>
+    <t>Разобраться что если ввести большие числа</t>
+  </si>
+  <si>
+    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
+  </si>
+  <si>
+    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
+  </si>
+  <si>
+    <t>Сохранить учет строки в случае когда число очень маленькое</t>
+  </si>
+  <si>
+    <t>Сменить цвет фокусируемого поля</t>
+  </si>
+  <si>
+    <t>При очистке в полях появляются фантомы, избавиться от них</t>
+  </si>
+  <si>
+    <t>Сохранить вид Activity если приложение закрылось</t>
+  </si>
+  <si>
+    <t>Сделать невозможным двойной запуск приложения</t>
+  </si>
+  <si>
+    <t>Сделать анимацию удалялки</t>
+  </si>
+  <si>
+    <t>Разобраться с запуском на разных API</t>
+  </si>
+  <si>
     <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
   </si>
   <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
-  </si>
-  <si>
-    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
-  </si>
-  <si>
-    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
-  </si>
-  <si>
-    <t>Сделать невозможным двойной запуск приложения</t>
-  </si>
-  <si>
-    <t>Сделать анимацию удалялки</t>
-  </si>
-  <si>
-    <t>Сохранить учет строки в случае когда число очень маленькое</t>
-  </si>
-  <si>
-    <t>Разобраться что если ввести большие числа</t>
-  </si>
-  <si>
-    <t>Паша </t>
-  </si>
-  <si>
-    <t>Разобраться с запуском на разных API</t>
-  </si>
-  <si>
-    <t>Как останавливать поток</t>
   </si>
   <si>
     <t>цена</t>
@@ -281,7 +300,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +311,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3333FF"/>
+        <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -335,7 +366,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,6 +400,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,34 +532,39 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3333FF"/>
       <rgbColor rgb="FF385724"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7165991902834"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,734 +580,767 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
         <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="0" t="n">
+      <c r="B33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="7" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="E33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="4" t="n">
+    <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>39</v>
-      </c>
       <c r="B41" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+      <c r="E41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="7" t="n">
+      <c r="B45" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+      <c r="E45" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="7" t="n">
+      <c r="B46" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>4</v>
+      <c r="E46" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,10 +1348,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>3</v>
@@ -1266,47 +1359,354 @@
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>3</v>
       </c>
     </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E101">
+    <filterColumn colId="4">
+      <customFilters and="true">
+        <customFilter operator="**none**" val=""/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1314,6 +1714,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1337,26 +1738,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="15"/>
       <c r="F1" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,7 +1770,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="17" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -1421,10 +1822,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -1437,20 +1838,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="18" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="13" t="n">
+      <c r="H9" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="18" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="J9" s="19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1461,20 +1862,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="20" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="20" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="21" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="14" t="n">
+      <c r="I10" s="20" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="22" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -1489,20 +1890,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F11" s="23" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="17" t="n">
+      <c r="H11" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="17" t="n">
+      <c r="I11" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="24" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -12,20 +12,21 @@
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
   <si>
     <t>№</t>
   </si>
@@ -66,141 +67,162 @@
     <t>Изменить наименования вью в дополнительной Layout row</t>
   </si>
   <si>
+    <t>Создать коллекцию и поисковик для результатов строк</t>
+  </si>
+  <si>
+    <t>Выделять цветом Лучший вариант</t>
+  </si>
+  <si>
+    <t>Изменить поля UI (заменить spinner на button; добавить кнопки очистить, добавить; добавить кнопку удалить строчку; добавить еще одну пустую строчку; объединить строчки процент и стоимость за единицу в результат)</t>
+  </si>
+  <si>
+    <t>Добавить ListView для разных единиц</t>
+  </si>
+  <si>
+    <t>Добавить кнопку для рассчета стоимости некоторого количества</t>
+  </si>
+  <si>
+    <t>Изменить ссылки на несуществующие ID (изменила ID, программа ругается на java-файлы, ссылки на несуществующие ID)</t>
+  </si>
+  <si>
+    <t>Поставить строчку рассчета некоторого количесвта сверху</t>
+  </si>
+  <si>
+    <t>Добавить картнику на кнопку убрать строчку, ругается на параметр left</t>
+  </si>
+  <si>
+    <t>Добавить поле экономия, изменить поле количество на кол-во, переименовать результат</t>
+  </si>
+  <si>
+    <t>Переделать цвета на ссылки</t>
+  </si>
+  <si>
+    <t>сделать отступы в ячейках</t>
+  </si>
+  <si>
+    <t>добавить корневой лаяут и поместить туда вывести rl_main и row c кнопками</t>
+  </si>
+  <si>
+    <t>Продумать размер шрифта</t>
+  </si>
+  <si>
+    <t>Продумать кнопку удалить строчку</t>
+  </si>
+  <si>
+    <t>Сделать границы ячеек цена за ед. и экономия</t>
+  </si>
+  <si>
+    <t>Сделать защиту от отрицательных чисел</t>
+  </si>
+  <si>
+    <t>При повороте экрана Очистка не работает</t>
+  </si>
+  <si>
+    <t>Восстановить Runnable</t>
+  </si>
+  <si>
+    <t>Сделать удалялку через сдвиг строки</t>
+  </si>
+  <si>
+    <t>Проверить наличие одного потока при повороте экрана</t>
+  </si>
+  <si>
+    <t>Пустые строки не должны учитываться при подсчете результата</t>
+  </si>
+  <si>
+    <t>Сменить цвет выделяемого поля</t>
+  </si>
+  <si>
+    <t>жду ответ о Гали</t>
+  </si>
+  <si>
+    <t>Как останавливать поток</t>
+  </si>
+  <si>
+    <t>Паша </t>
+  </si>
+  <si>
+    <t>Уползла верстка на моем экране и экране Гали</t>
+  </si>
+  <si>
+    <t>жду ответ от Гали</t>
+  </si>
+  <si>
+    <t>Изменить значения в графе количество и цена на дробные</t>
+  </si>
+  <si>
+    <t>В ячейке Цена за ед. сократить количество знаков после запятой до сотых</t>
+  </si>
+  <si>
+    <t>Сделать фокус на ячейку et_price1</t>
+  </si>
+  <si>
+    <t>Выделить наиболее удачный вариант цвнтом colorVariant1</t>
+  </si>
+  <si>
+    <t>Изменить кнопку удалить в Row</t>
+  </si>
+  <si>
+    <t>Сделать отступы</t>
+  </si>
+  <si>
+    <t>При выделении вариантов цветом сделать чтобы поле edPrice и edQuantity также закрашивалось</t>
+  </si>
+  <si>
+    <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
+  </si>
+  <si>
+    <t>Разобраться что если ввести большие числа</t>
+  </si>
+  <si>
+    <t>Сменить цвет фокусируемого поля</t>
+  </si>
+  <si>
+    <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
+  </si>
+  <si>
+    <t>22.04.2016</t>
+  </si>
+  <si>
+    <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
+  </si>
+  <si>
+    <t>Включать перерисовывалку бекГраунда только в крайнем случае</t>
+  </si>
+  <si>
     <t>Добавить расчет метод go() для создаваемых строк.</t>
   </si>
   <si>
     <t>отменено</t>
   </si>
   <si>
-    <t>Создать коллекцию и поисковик для результатов строк</t>
-  </si>
-  <si>
-    <t>Выделять цветом Лучший вариант</t>
-  </si>
-  <si>
-    <t>Изменить поля UI (заменить spinner на button; добавить кнопки очистить, добавить; добавить кнопку удалить строчку; добавить еще одну пустую строчку; объединить строчки процент и стоимость за единицу в результат)</t>
-  </si>
-  <si>
-    <t>Добавить ListView для разных единиц</t>
-  </si>
-  <si>
-    <t>Добавить кнопку для рассчета стоимости некоторого количества</t>
-  </si>
-  <si>
-    <t>Изменить ссылки на несуществующие ID (изменила ID, программа ругается на java-файлы, ссылки на несуществующие ID)</t>
-  </si>
-  <si>
-    <t>Поставить строчку рассчета некоторого количесвта сверху</t>
-  </si>
-  <si>
-    <t>Добавить картнику на кнопку убрать строчку, ругается на параметр left</t>
-  </si>
-  <si>
-    <t>Добавить поле экономия, изменить поле количество на кол-во, переименовать результат</t>
-  </si>
-  <si>
     <t>Продумать цвета для полей и записать в Colors</t>
   </si>
   <si>
-    <t>Переделать цвета на ссылки</t>
-  </si>
-  <si>
-    <t>сделать отступы в ячейках</t>
-  </si>
-  <si>
-    <t>добавить корневой лаяут и поместить туда вывести rl_main и row c кнопками</t>
-  </si>
-  <si>
-    <t>Продумать размер шрифта</t>
-  </si>
-  <si>
-    <t>Продумать кнопку удалить строчку</t>
-  </si>
-  <si>
     <t>Сделать кнопки добавить и очистить</t>
   </si>
   <si>
-    <t>Сделать границы ячеек цена за ед. и экономия</t>
-  </si>
-  <si>
-    <t>Сделать защиту от отрицательных чисел</t>
-  </si>
-  <si>
-    <t>При повороте экрана Очистка не работает</t>
-  </si>
-  <si>
-    <t>Восстановить Runnable</t>
-  </si>
-  <si>
-    <t>Сделать удалялку через сдвиг строки</t>
-  </si>
-  <si>
-    <t>Проверить наличие одного потока при повороте экрана</t>
-  </si>
-  <si>
-    <t>Пустые строки не должны учитываться при подсчете результата</t>
-  </si>
-  <si>
-    <t>Паша </t>
-  </si>
-  <si>
-    <t>Сменить цвет выделяемого поля</t>
-  </si>
-  <si>
-    <t>жду ответ о Гали</t>
-  </si>
-  <si>
-    <t>Как останавливать поток</t>
-  </si>
-  <si>
     <t>Продумать дизайн</t>
   </si>
   <si>
-    <t>Изменить значения в графе количество и цена на дробные</t>
+    <t>Заполнить LinerView для разных единиц</t>
+  </si>
+  <si>
+    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
+  </si>
+  <si>
+    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
+  </si>
+  <si>
+    <t>Приложение подтормаживает,  останавливать поток в момент нажатия клавиши клавиатуры и скроллинга</t>
   </si>
   <si>
     <t>Придумать текст для рассчета некоторого количества</t>
   </si>
   <si>
-    <t>Заполнить LinerView для разных единиц</t>
-  </si>
-  <si>
-    <t>В ячейке Цена за ед. сократить количество знаков после запятой до сотых</t>
-  </si>
-  <si>
-    <t>Сделать фокус на ячейку et_price1</t>
-  </si>
-  <si>
-    <t>Выделить наиболее удачный вариант цвнтом colorVariant1</t>
-  </si>
-  <si>
-    <t>Изменить кнопку удалить в Row</t>
-  </si>
-  <si>
-    <t>Сделать отступы</t>
-  </si>
-  <si>
-    <t>При выделении вариантов цветом сделать чтобы поле edPrice и edQuantity также закрашивалось</t>
-  </si>
-  <si>
-    <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
-  </si>
-  <si>
-    <t>Разобраться что если ввести большие числа</t>
-  </si>
-  <si>
-    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
-  </si>
-  <si>
-    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
-  </si>
-  <si>
     <t>Сохранить учет строки в случае когда число очень маленькое</t>
   </si>
   <si>
-    <t>Сменить цвет фокусируемого поля</t>
-  </si>
-  <si>
     <t>При очистке в полях появляются фантомы, избавиться от них</t>
   </si>
   <si>
@@ -216,10 +238,10 @@
     <t>Разобраться с запуском на разных API</t>
   </si>
   <si>
-    <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
-  </si>
-  <si>
-    <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
+    <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
+  </si>
+  <si>
+    <t>При очистке поля не закрашены</t>
   </si>
   <si>
     <t>цена</t>
@@ -300,7 +322,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,20 +337,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3333FF"/>
         <bgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF3399FF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3399FF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,7 +400,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -419,12 +453,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -496,7 +554,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -548,10 +606,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
+      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -561,7 +619,8 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7165991902834"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,7 +639,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -653,133 +712,133 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -790,64 +849,64 @@
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -858,30 +917,30 @@
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
@@ -892,248 +951,259 @@
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="D25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="D27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+      <c r="A28" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" s="13" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="0"/>
+    </row>
+    <row r="31" s="10" customFormat="true" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
-        <v>49</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="A32" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="7" t="n">
+      <c r="A33" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2</v>
@@ -1141,357 +1211,428 @@
       <c r="E34" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="7" t="n">
+      <c r="E35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="0" t="n">
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="n">
-        <v>23</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
+        <v>26</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="0" t="n">
+      <c r="E46" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="E47" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
-        <v>41</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="B50" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D46" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>42</v>
-      </c>
       <c r="B51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="0" t="n">
+      <c r="B58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="59" s="10" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" s="0"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>59</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +1841,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E101">
+  <autoFilter ref="A1:F101">
     <filterColumn colId="4">
       <customFilters and="true">
         <customFilter operator="**none**" val=""/>
@@ -1738,26 +1879,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="21"/>
       <c r="F1" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,7 +1911,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="23" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -1822,10 +1963,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -1838,20 +1979,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="24" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="H9" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="19" t="n">
+      <c r="J9" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1862,20 +2003,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="20" t="n">
+      <c r="F10" s="26" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="20" t="n">
+      <c r="G10" s="26" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="21" t="n">
+      <c r="H10" s="27" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="20" t="n">
+      <c r="I10" s="26" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="22" t="n">
+      <c r="J10" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -1890,20 +2031,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="29" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="23" t="n">
+      <c r="I11" s="29" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="24" t="n">
+      <c r="J11" s="30" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -17,16 +17,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="84">
   <si>
     <t>№</t>
   </si>
@@ -58,6 +59,12 @@
     <t>Перерисовать raw_layot</t>
   </si>
   <si>
+    <t>Сохранить учет строки в случае когда число очень маленькое</t>
+  </si>
+  <si>
+    <t>25.04.2015</t>
+  </si>
+  <si>
     <t>Галя</t>
   </si>
   <si>
@@ -139,109 +146,118 @@
     <t>Как останавливать поток</t>
   </si>
   <si>
+    <t>Уползла верстка на моем экране и экране Гали</t>
+  </si>
+  <si>
+    <t>жду ответ от Гали</t>
+  </si>
+  <si>
+    <t>Включать перерисовывалку бекГраунда только в крайнем случае</t>
+  </si>
+  <si>
+    <t>22.04.2016</t>
+  </si>
+  <si>
+    <t>Добавить расчет метод go() для создаваемых строк.</t>
+  </si>
+  <si>
+    <t>отменено</t>
+  </si>
+  <si>
+    <t>Продумать цвета для полей и записать в Colors</t>
+  </si>
+  <si>
+    <t>Сделать кнопки добавить и очистить</t>
+  </si>
+  <si>
+    <t>Приложение подтормаживает,  останавливать поток в момент нажатия клавиши клавиатуры и скроллинга</t>
+  </si>
+  <si>
+    <t>Изменить значения в графе количество и цена на дробные</t>
+  </si>
+  <si>
+    <t>В ячейке Цена за ед. сократить количество знаков после запятой до сотых</t>
+  </si>
+  <si>
+    <t>Сделать фокус на ячейку et_price1</t>
+  </si>
+  <si>
+    <t>Выделить наиболее удачный вариант цвнтом colorVariant1</t>
+  </si>
+  <si>
+    <t>Изменить кнопку удалить в Row</t>
+  </si>
+  <si>
+    <t>Сделать отступы</t>
+  </si>
+  <si>
+    <t>При выделении вариантов цветом сделать чтобы поле edPrice и edQuantity также закрашивалось</t>
+  </si>
+  <si>
+    <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
+  </si>
+  <si>
+    <t>Разобраться что если ввести большие числа</t>
+  </si>
+  <si>
+    <t>Продумать дизайн</t>
+  </si>
+  <si>
+    <t>Заполнить LinerView для разных единиц</t>
+  </si>
+  <si>
+    <t>Придумать текст для рассчета некоторого количества</t>
+  </si>
+  <si>
+    <t>Сменить цвет фокусируемого поля</t>
+  </si>
+  <si>
+    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
+  </si>
+  <si>
+    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
+  </si>
+  <si>
+    <t>При очистке в полях появляются фантомы, избавиться от них</t>
+  </si>
+  <si>
+    <t>Сохранить вид Activity если приложение закрылось</t>
+  </si>
+  <si>
+    <t>При очистке поля не закрашены</t>
+  </si>
+  <si>
+    <t>Сделать невозможным двойной запуск приложения</t>
+  </si>
+  <si>
+    <t>Сделать анимацию удалялки</t>
+  </si>
+  <si>
+    <t>Разобраться с запуском на разных API</t>
+  </si>
+  <si>
+    <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
+  </si>
+  <si>
+    <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
+  </si>
+  <si>
+    <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
+  </si>
+  <si>
+    <t>Добавить расчет на кол-во в поле расчитать на кол-во</t>
+  </si>
+  <si>
+    <t>Добавить разные единицы измерения</t>
+  </si>
+  <si>
+    <t>При сврачивании и разворачивании приложения появляются какие-то фантомы</t>
+  </si>
+  <si>
     <t>Паша </t>
   </si>
   <si>
-    <t>Уползла верстка на моем экране и экране Гали</t>
-  </si>
-  <si>
-    <t>жду ответ от Гали</t>
-  </si>
-  <si>
-    <t>Изменить значения в графе количество и цена на дробные</t>
-  </si>
-  <si>
-    <t>В ячейке Цена за ед. сократить количество знаков после запятой до сотых</t>
-  </si>
-  <si>
-    <t>Сделать фокус на ячейку et_price1</t>
-  </si>
-  <si>
-    <t>Выделить наиболее удачный вариант цвнтом colorVariant1</t>
-  </si>
-  <si>
-    <t>Изменить кнопку удалить в Row</t>
-  </si>
-  <si>
-    <t>Сделать отступы</t>
-  </si>
-  <si>
-    <t>При выделении вариантов цветом сделать чтобы поле edPrice и edQuantity также закрашивалось</t>
-  </si>
-  <si>
-    <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
-  </si>
-  <si>
-    <t>Разобраться что если ввести большие числа</t>
-  </si>
-  <si>
-    <t>Сменить цвет фокусируемого поля</t>
-  </si>
-  <si>
-    <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
-  </si>
-  <si>
-    <t>22.04.2016</t>
-  </si>
-  <si>
-    <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
-  </si>
-  <si>
-    <t>Включать перерисовывалку бекГраунда только в крайнем случае</t>
-  </si>
-  <si>
-    <t>Добавить расчет метод go() для создаваемых строк.</t>
-  </si>
-  <si>
-    <t>отменено</t>
-  </si>
-  <si>
-    <t>Продумать цвета для полей и записать в Colors</t>
-  </si>
-  <si>
-    <t>Сделать кнопки добавить и очистить</t>
-  </si>
-  <si>
-    <t>Продумать дизайн</t>
-  </si>
-  <si>
-    <t>Заполнить LinerView для разных единиц</t>
-  </si>
-  <si>
-    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
-  </si>
-  <si>
-    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
-  </si>
-  <si>
-    <t>Приложение подтормаживает,  останавливать поток в момент нажатия клавиши клавиатуры и скроллинга</t>
-  </si>
-  <si>
-    <t>Придумать текст для рассчета некоторого количества</t>
-  </si>
-  <si>
-    <t>Сохранить учет строки в случае когда число очень маленькое</t>
-  </si>
-  <si>
-    <t>При очистке в полях появляются фантомы, избавиться от них</t>
-  </si>
-  <si>
-    <t>Сохранить вид Activity если приложение закрылось</t>
-  </si>
-  <si>
-    <t>Сделать невозможным двойной запуск приложения</t>
-  </si>
-  <si>
-    <t>Сделать анимацию удалялки</t>
-  </si>
-  <si>
-    <t>Разобраться с запуском на разных API</t>
-  </si>
-  <si>
-    <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
-  </si>
-  <si>
-    <t>При очистке поля не закрашены</t>
+    <t>при повороте экрана теряются цвета карточек</t>
   </si>
   <si>
     <t>цена</t>
@@ -400,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,10 +469,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,10 +486,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,7 +617,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -677,66 +685,69 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="4" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1</v>
@@ -745,32 +756,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -779,66 +790,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -849,30 +860,30 @@
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>18</v>
-      </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -883,47 +894,47 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="B17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
@@ -934,13 +945,13 @@
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
@@ -951,14 +962,14 @@
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
@@ -967,48 +978,48 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="B21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>1</v>
@@ -1019,508 +1030,508 @@
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <v>49</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" s="10" customFormat="true" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+      <c r="D35" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
-        <v>49</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" s="13" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="0" t="n">
+      <c r="D40" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="0"/>
-    </row>
-    <row r="31" s="10" customFormat="true" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" s="4" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <v>52</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>22</v>
-      </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D41" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
+    <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="D47" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="true" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16" t="n">
+        <v>40</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16" t="n">
+        <v>41</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="D42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
-        <v>26</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>2</v>
+      <c r="E52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>6</v>
@@ -1532,23 +1543,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
+    <row r="54" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="4" t="n">
         <v>3</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>6</v>
@@ -1557,12 +1574,12 @@
         <v>66</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>6</v>
@@ -1578,7 +1595,7 @@
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>6</v>
@@ -1590,9 +1607,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>6</v>
@@ -1603,56 +1620,97 @@
       <c r="D58" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" s="0"/>
-      <c r="F59" s="20"/>
+      <c r="D59" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="G59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>63</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,6 +1901,11 @@
   </sheetData>
   <autoFilter ref="A1:F101">
     <filterColumn colId="4">
+      <customFilters and="true">
+        <customFilter operator="**none**" val=""/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
       <customFilters and="true">
         <customFilter operator="**none**" val=""/>
       </customFilters>
@@ -1879,26 +1942,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="19"/>
       <c r="F1" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,7 +1974,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="23" t="n">
+      <c r="D2" s="21" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -1963,10 +2026,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -1979,20 +2042,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="22" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="24" t="n">
+      <c r="G9" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="25" t="n">
+      <c r="J9" s="23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2003,20 +2066,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="26" t="n">
+      <c r="F10" s="24" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="26" t="n">
+      <c r="G10" s="24" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="27" t="n">
+      <c r="H10" s="25" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="26" t="n">
+      <c r="I10" s="24" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="28" t="n">
+      <c r="J10" s="26" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -2031,20 +2094,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="27" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="29" t="n">
+      <c r="H11" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="29" t="n">
+      <c r="I11" s="27" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="30" t="n">
+      <c r="J11" s="28" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -18,16 +18,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="87">
   <si>
     <t>№</t>
   </si>
@@ -65,6 +66,12 @@
     <t>25.04.2015</t>
   </si>
   <si>
+    <t>При сврачивании и разворачивании приложения появляются какие-то фантомы</t>
+  </si>
+  <si>
+    <t>26.04.2016</t>
+  </si>
+  <si>
     <t>Галя</t>
   </si>
   <si>
@@ -170,9 +177,24 @@
     <t>Сделать кнопки добавить и очистить</t>
   </si>
   <si>
+    <t>ТЕСТИМ</t>
+  </si>
+  <si>
     <t>Приложение подтормаживает,  останавливать поток в момент нажатия клавиши клавиатуры и скроллинга</t>
   </si>
   <si>
+    <t>Сохранить вид Activity если приложение закрылось</t>
+  </si>
+  <si>
+    <t>Добавить расчет на кол-во в поле расчитать на кол-во</t>
+  </si>
+  <si>
+    <t>Добавить разные единицы измерения</t>
+  </si>
+  <si>
+    <t>Нарисовать ярлычок</t>
+  </si>
+  <si>
     <t>Изменить значения в графе количество и цена на дробные</t>
   </si>
   <si>
@@ -209,6 +231,21 @@
     <t>Придумать текст для рассчета некоторого количества</t>
   </si>
   <si>
+    <t>при повороте экрана теряются цвета карточек</t>
+  </si>
+  <si>
+    <t>Сделать невозможным двойной запуск приложения</t>
+  </si>
+  <si>
+    <t>Сделать анимацию удалялки</t>
+  </si>
+  <si>
+    <t>Разобраться с запуском на разных API</t>
+  </si>
+  <si>
+    <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
+  </si>
+  <si>
     <t>Сменить цвет фокусируемого поля</t>
   </si>
   <si>
@@ -221,43 +258,16 @@
     <t>При очистке в полях появляются фантомы, избавиться от них</t>
   </si>
   <si>
-    <t>Сохранить вид Activity если приложение закрылось</t>
-  </si>
-  <si>
     <t>При очистке поля не закрашены</t>
   </si>
   <si>
-    <t>Сделать невозможным двойной запуск приложения</t>
-  </si>
-  <si>
-    <t>Сделать анимацию удалялки</t>
-  </si>
-  <si>
-    <t>Разобраться с запуском на разных API</t>
-  </si>
-  <si>
-    <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
+    <t>Если горизонтальный поворот убрать фокусировку</t>
   </si>
   <si>
     <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
   </si>
   <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
-  </si>
-  <si>
-    <t>Добавить расчет на кол-во в поле расчитать на кол-во</t>
-  </si>
-  <si>
-    <t>Добавить разные единицы измерения</t>
-  </si>
-  <si>
-    <t>При сврачивании и разворачивании приложения появляются какие-то фантомы</t>
-  </si>
-  <si>
-    <t>Паша </t>
-  </si>
-  <si>
-    <t>при повороте экрана теряются цвета карточек</t>
   </si>
   <si>
     <t>цена</t>
@@ -371,14 +381,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3399FF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FF3399FF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -485,12 +495,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -617,7 +627,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -705,66 +715,69 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    <row r="5" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1</v>
@@ -773,100 +786,100 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
@@ -877,30 +890,30 @@
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>18</v>
-      </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -911,47 +924,47 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="B18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
@@ -962,13 +975,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
@@ -979,64 +992,64 @@
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="B22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>1</v>
@@ -1047,306 +1060,297 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
         <v>51</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="B29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="B30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" s="10" customFormat="true" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="n">
         <v>58</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="B32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
-        <v>17</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>44</v>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="B35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="B36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="B37" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2</v>
@@ -1356,48 +1360,48 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="4" t="n">
+      <c r="A43" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="4" t="n">
+      <c r="A44" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>2</v>
@@ -1407,160 +1411,163 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="13" t="n">
+      <c r="A46" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>44</v>
+      <c r="E46" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="A47" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="13" t="n">
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="0" t="n">
+      <c r="E47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="4" t="n">
         <v>2</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D49" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="true" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="n">
-        <v>41</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>44</v>
+      <c r="B51" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>3</v>
+      <c r="A52" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="54" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,10 +1578,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,10 +1592,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
@@ -1601,10 +1608,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,112 +1622,154 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="0" t="n">
+      <c r="A60" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="17" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="0" t="n">
+      <c r="E60" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="17" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="0" t="n">
+      <c r="E61" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="4" t="n">
         <v>3</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,11 +1950,6 @@
   </sheetData>
   <autoFilter ref="A1:F101">
     <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="**none**" val=""/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
       <customFilters and="true">
         <customFilter operator="**none**" val=""/>
       </customFilters>
@@ -1942,26 +1986,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="19"/>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,10 +2070,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -19,16 +19,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
   <si>
     <t>№</t>
   </si>
@@ -177,10 +178,10 @@
     <t>Сделать кнопки добавить и очистить</t>
   </si>
   <si>
-    <t>ТЕСТИМ</t>
-  </si>
-  <si>
     <t>Приложение подтормаживает,  останавливать поток в момент нажатия клавиши клавиатуры и скроллинга</t>
+  </si>
+  <si>
+    <t>27.04.2016</t>
   </si>
   <si>
     <t>Сохранить вид Activity если приложение закрылось</t>
@@ -627,7 +628,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1268,22 +1269,25 @@
       <c r="D36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,7 +1978,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A37:F37 F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -20,16 +20,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>№</t>
   </si>
@@ -245,6 +246,12 @@
   </si>
   <si>
     <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
+  </si>
+  <si>
+    <t>Паша </t>
+  </si>
+  <si>
+    <t>Сделать так чтобы пустые поля не участвовали в расчетах</t>
   </si>
   <si>
     <t>Сменить цвет фокусируемого поля</t>
@@ -628,7 +635,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37:F37"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1633,53 +1640,52 @@
       </c>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+    <row r="59" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="4" t="n">
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="E60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="n">
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="n">
-        <v>41</v>
-      </c>
       <c r="B61" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61" s="17" t="n">
         <v>3</v>
@@ -1689,96 +1695,108 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="4" t="n">
+      <c r="A62" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>11</v>
+      <c r="E62" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="E63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="0" t="n">
+      <c r="B65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="n">
+    <row r="66" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="10" t="n">
+      <c r="B66" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="E66" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="67" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B67" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>66</v>
+      <c r="C67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,7 +1996,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A37:F37 F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1990,26 +2008,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="19"/>
       <c r="F1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,10 +2092,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -314,7 +314,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -337,7 +336,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -345,7 +343,6 @@
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -353,7 +350,6 @@
       <color rgb="FF385724"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -635,7 +631,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1622,7 +1618,7 @@
         <v>70</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,7 +1969,7 @@
   <autoFilter ref="A1:F101">
     <filterColumn colId="4">
       <customFilters and="true">
-        <customFilter operator="**none**" val=""/>
+        <customFilter operator="equal" val="0"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -21,16 +21,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="89">
   <si>
     <t>№</t>
   </si>
@@ -248,9 +249,6 @@
     <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
   </si>
   <si>
-    <t>Паша </t>
-  </si>
-  <si>
     <t>Сделать так чтобы пустые поля не участвовали в расчетах</t>
   </si>
   <si>
@@ -276,6 +274,9 @@
   </si>
   <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
+  </si>
+  <si>
+    <t>Масштаб и запуск потока должен выполнятся в одном Watcher</t>
   </si>
   <si>
     <t>цена</t>
@@ -314,6 +315,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -336,6 +338,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -343,6 +346,7 @@
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -350,6 +354,7 @@
       <color rgb="FF385724"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -631,7 +636,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1641,10 +1646,10 @@
         <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>2</v>
@@ -1661,7 +1666,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>3</v>
@@ -1681,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="17" t="n">
         <v>3</v>
@@ -1698,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D62" s="17" t="n">
         <v>3</v>
@@ -1715,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>3</v>
@@ -1735,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>3</v>
@@ -1755,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>5</v>
@@ -1769,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" s="10" t="n">
         <v>5</v>
@@ -1789,15 +1794,24 @@
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>67</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -19,16 +19,19 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="89">
   <si>
     <t>№</t>
   </si>
@@ -177,12 +180,12 @@
     <t>Сделать кнопки добавить и очистить</t>
   </si>
   <si>
-    <t>ТЕСТИМ</t>
-  </si>
-  <si>
     <t>Приложение подтормаживает,  останавливать поток в момент нажатия клавиши клавиатуры и скроллинга</t>
   </si>
   <si>
+    <t>27.04.2016</t>
+  </si>
+  <si>
     <t>Сохранить вид Activity если приложение закрылось</t>
   </si>
   <si>
@@ -246,6 +249,9 @@
     <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
   </si>
   <si>
+    <t>Сделать так чтобы пустые поля не участвовали в расчетах</t>
+  </si>
+  <si>
     <t>Сменить цвет фокусируемого поля</t>
   </si>
   <si>
@@ -268,6 +274,9 @@
   </si>
   <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
+  </si>
+  <si>
+    <t>Масштаб и запуск потока должен выполнятся в одном Watcher</t>
   </si>
   <si>
     <t>цена</t>
@@ -306,7 +315,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -329,7 +338,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -337,7 +346,7 @@
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -345,7 +354,7 @@
       <color rgb="FF385724"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -627,7 +636,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1268,22 +1277,25 @@
       <c r="D36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,47 +1641,46 @@
       </c>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+    <row r="59" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="4" t="n">
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="E60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="n">
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="n">
         <v>40</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="n">
-        <v>41</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>6</v>
@@ -1685,28 +1696,25 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="A62" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>11</v>
+      <c r="E62" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>6</v>
@@ -1717,69 +1725,93 @@
       <c r="D63" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="E63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="0" t="n">
+      <c r="B65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="n">
+    <row r="66" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="10" t="n">
+      <c r="B66" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="E66" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="67" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B67" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>67</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,7 +1983,7 @@
   <autoFilter ref="A1:F101">
     <filterColumn colId="4">
       <customFilters and="true">
-        <customFilter operator="**none**" val=""/>
+        <customFilter operator="equal" val="0"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -1986,26 +2018,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="19"/>
       <c r="F1" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,10 +2102,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -22,16 +22,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="90">
   <si>
     <t>№</t>
   </si>
@@ -178,6 +179,9 @@
   </si>
   <si>
     <t>Сделать кнопки добавить и очистить</t>
+  </si>
+  <si>
+    <t>19.05.2016</t>
   </si>
   <si>
     <t>Приложение подтормаживает,  останавливать поток в момент нажатия клавиши клавиатуры и скроллинга</t>
@@ -636,13 +640,13 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="68.3562753036437"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7165991902834"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8663967611336"/>
@@ -1264,18 +1268,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
+      <c r="D36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>1</v>
@@ -1295,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
@@ -1320,7 +1330,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1</v>
@@ -1334,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
@@ -1348,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
@@ -1362,7 +1372,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2</v>
@@ -1379,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2</v>
@@ -1396,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" s="7" t="n">
         <v>2</v>
@@ -1413,7 +1423,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>2</v>
@@ -1430,7 +1440,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2</v>
@@ -1447,7 +1457,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>2</v>
@@ -1464,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>2</v>
@@ -1481,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>2</v>
@@ -1498,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>2</v>
@@ -1516,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51" s="13" t="n">
         <v>2</v>
@@ -1533,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="13" t="n">
         <v>2</v>
@@ -1550,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>2</v>
@@ -1570,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>2</v>
@@ -1590,27 +1600,31 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="56" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="0" t="n">
+      <c r="B56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
+      <c r="E56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -1620,7 +1634,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>5</v>
@@ -1634,7 +1648,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>2</v>
@@ -1649,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>2</v>
@@ -1666,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>3</v>
@@ -1686,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61" s="17" t="n">
         <v>3</v>
@@ -1703,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D62" s="17" t="n">
         <v>3</v>
@@ -1720,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>3</v>
@@ -1740,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>3</v>
@@ -1760,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>5</v>
@@ -1774,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66" s="10" t="n">
         <v>5</v>
@@ -1794,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>8</v>
@@ -1808,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>5</v>
@@ -1983,7 +1997,7 @@
   <autoFilter ref="A1:F101">
     <filterColumn colId="4">
       <customFilters and="true">
-        <customFilter operator="equal" val="0"/>
+        <customFilter operator="**none**" val=""/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -2006,7 +2020,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A56:F56 F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2018,26 +2032,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="19"/>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,10 +2116,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -23,16 +23,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="91">
   <si>
     <t>№</t>
   </si>
@@ -191,6 +192,9 @@
   </si>
   <si>
     <t>Сохранить вид Activity если приложение закрылось</t>
+  </si>
+  <si>
+    <t>23/05/2016</t>
   </si>
   <si>
     <t>Добавить расчет на кол-во в поле расчитать на кол-во</t>
@@ -640,7 +644,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56:F56"/>
+      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1308,18 +1312,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
+      <c r="D38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1</v>
@@ -1344,7 +1354,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
@@ -1358,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
@@ -1372,7 +1382,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2</v>
@@ -1389,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2</v>
@@ -1406,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" s="7" t="n">
         <v>2</v>
@@ -1423,7 +1433,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>2</v>
@@ -1440,7 +1450,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2</v>
@@ -1457,7 +1467,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>2</v>
@@ -1474,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>2</v>
@@ -1491,7 +1501,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>2</v>
@@ -1508,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>2</v>
@@ -1526,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="13" t="n">
         <v>2</v>
@@ -1543,7 +1553,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="13" t="n">
         <v>2</v>
@@ -1560,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>2</v>
@@ -1580,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>2</v>
@@ -1600,7 +1610,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2</v>
@@ -1614,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>2</v>
@@ -1634,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>5</v>
@@ -1648,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>2</v>
@@ -1663,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>2</v>
@@ -1680,7 +1690,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>3</v>
@@ -1700,7 +1710,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D61" s="17" t="n">
         <v>3</v>
@@ -1717,7 +1727,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D62" s="17" t="n">
         <v>3</v>
@@ -1734,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>3</v>
@@ -1754,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>3</v>
@@ -1774,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>5</v>
@@ -1788,7 +1798,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D66" s="10" t="n">
         <v>5</v>
@@ -1808,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>8</v>
@@ -1822,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>5</v>
@@ -2020,7 +2030,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A56:F56 F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2032,26 +2042,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="19"/>
       <c r="F1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,10 +2126,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -24,16 +24,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>№</t>
   </si>
@@ -206,6 +208,21 @@
     <t>Нарисовать ярлычок</t>
   </si>
   <si>
+    <t>Разобраться с цветом при загрузке</t>
+  </si>
+  <si>
+    <t>Разобраться с тем чтобы учитывались сверх минимальные значения</t>
+  </si>
+  <si>
+    <t>Разобраться чтобы поля при запуске были пустыми</t>
+  </si>
+  <si>
+    <t>Изменить значения с абсолютных величин на относительные В CARDVIEW</t>
+  </si>
+  <si>
+    <t>24/05/2016</t>
+  </si>
+  <si>
     <t>Изменить значения в графе количество и цена на дробные</t>
   </si>
   <si>
@@ -251,40 +268,40 @@
     <t>Сделать анимацию удалялки</t>
   </si>
   <si>
+    <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
+  </si>
+  <si>
+    <t>Сделать так чтобы пустые поля не участвовали в расчетах</t>
+  </si>
+  <si>
+    <t>Сменить цвет фокусируемого поля</t>
+  </si>
+  <si>
+    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
+  </si>
+  <si>
+    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
+  </si>
+  <si>
+    <t>При очистке в полях появляются фантомы, избавиться от них</t>
+  </si>
+  <si>
+    <t>При очистке поля не закрашены</t>
+  </si>
+  <si>
     <t>Разобраться с запуском на разных API</t>
   </si>
   <si>
-    <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
-  </si>
-  <si>
-    <t>Сделать так чтобы пустые поля не участвовали в расчетах</t>
-  </si>
-  <si>
-    <t>Сменить цвет фокусируемого поля</t>
-  </si>
-  <si>
-    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
-  </si>
-  <si>
-    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
-  </si>
-  <si>
-    <t>При очистке в полях появляются фантомы, избавиться от них</t>
-  </si>
-  <si>
-    <t>При очистке поля не закрашены</t>
-  </si>
-  <si>
     <t>Если горизонтальный поворот убрать фокусировку</t>
   </si>
   <si>
     <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
   </si>
   <si>
+    <t>Масштаб и запуск потока должен выполнятся в одном Watcher</t>
+  </si>
+  <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
-  </si>
-  <si>
-    <t>Масштаб и запуск потока должен выполнятся в одном Watcher</t>
   </si>
   <si>
     <t>цена</t>
@@ -317,7 +334,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -339,6 +356,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -365,12 +389,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC66"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -409,12 +439,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -443,7 +501,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -452,23 +510,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,11 +566,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -532,22 +598,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,7 +610,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,7 +679,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3399FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF99CC66"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -644,7 +710,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
+      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -662,93 +728,93 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -787,40 +853,40 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
@@ -854,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>9</v>
       </c>
@@ -871,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
@@ -905,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>15</v>
       </c>
@@ -1042,181 +1108,181 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="D27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
+      <c r="A29" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="D29" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="D30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="D31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+    <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
         <v>58</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="D32" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1237,98 +1303,98 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
+    <row r="34" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="D36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="D37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="D38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1375,82 +1441,94 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="12" t="n">
+        <v>68</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>8</v>
+      <c r="D43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="A44" s="12" t="n">
+        <v>70</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>8</v>
+      <c r="D44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="A45" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>8</v>
+      <c r="D45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2</v>
@@ -1461,13 +1539,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>2</v>
@@ -1476,204 +1554,211 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="B52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="B58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="E58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
-        <v>63</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    </row>
+    <row r="59" s="12" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>66</v>
-      </c>
       <c r="B59" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>2</v>
@@ -1683,179 +1768,228 @@
       <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="4" t="n">
+      <c r="B63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="E63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="n">
+    <row r="64" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19" t="n">
         <v>40</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="17" t="n">
+      <c r="B64" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E64" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17" t="n">
+    <row r="65" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="19" t="n">
         <v>41</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="17" t="n">
+      <c r="B65" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E65" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+    <row r="66" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="4" t="n">
+      <c r="B66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="E66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+    <row r="67" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="4" t="n">
+      <c r="B67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="4" t="s">
+      <c r="E67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>71</v>
+        <v>22</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,26 +2176,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="21"/>
       <c r="F1" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,7 +2208,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="21" t="n">
+      <c r="D2" s="23" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -2126,10 +2260,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -2142,20 +2276,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="24" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="22" t="n">
+      <c r="G9" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="23" t="n">
+      <c r="H9" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="22" t="n">
+      <c r="I9" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="23" t="n">
+      <c r="J9" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2166,20 +2300,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="24" t="n">
+      <c r="F10" s="26" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="24" t="n">
+      <c r="G10" s="26" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="27" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="26" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="26" t="n">
+      <c r="J10" s="28" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -2194,20 +2328,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="27" t="n">
+      <c r="F11" s="29" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="27" t="n">
+      <c r="G11" s="29" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="27" t="n">
+      <c r="H11" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="27" t="n">
+      <c r="I11" s="29" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="28" t="n">
+      <c r="J11" s="30" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -26,16 +26,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="100">
   <si>
     <t>№</t>
   </si>
@@ -202,6 +203,9 @@
     <t>Добавить расчет на кол-во в поле расчитать на кол-во</t>
   </si>
   <si>
+    <t>24/05/2016</t>
+  </si>
+  <si>
     <t>Добавить разные единицы измерения</t>
   </si>
   <si>
@@ -220,7 +224,13 @@
     <t>Изменить значения с абсолютных величин на относительные В CARDVIEW</t>
   </si>
   <si>
-    <t>24/05/2016</t>
+    <t>Пересчет лишних нулей в сокращения – (млн., тыс и т.д.)</t>
+  </si>
+  <si>
+    <t>Разобраться с форматом double – автоматическое добавление и удаление лишних нулей</t>
+  </si>
+  <si>
+    <t>Вывести проценты в единицы измерения</t>
   </si>
   <si>
     <t>Изменить значения в графе количество и цена на дробные</t>
@@ -299,6 +309,9 @@
   </si>
   <si>
     <t>Масштаб и запуск потока должен выполнятся в одном Watcher</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
@@ -389,7 +402,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +451,12 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
@@ -501,7 +520,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -584,6 +603,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -710,7 +741,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1398,18 +1429,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
+      <c r="D39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
@@ -1434,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
@@ -1448,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" s="12" t="n">
         <v>1</v>
@@ -1468,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43" s="6" t="n">
         <v>1</v>
@@ -1488,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44" s="12" t="n">
         <v>1</v>
@@ -1508,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>1</v>
@@ -1517,29 +1554,26 @@
         <v>8</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>6</v>
@@ -1548,52 +1582,46 @@
         <v>63</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>66</v>
@@ -1607,25 +1635,25 @@
       <c r="F50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="A51" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>6</v>
@@ -1636,83 +1664,83 @@
       <c r="D52" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+      <c r="A53" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="6" t="n">
+      <c r="B56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" s="8" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
-        <v>47</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>46</v>
+      <c r="E56" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>6</v>
@@ -1723,53 +1751,49 @@
       <c r="D57" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>13</v>
+      <c r="E57" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
-        <v>63</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="A58" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="6" t="n">
+      <c r="D58" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="E58" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E59" s="0"/>
+      <c r="E59" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>6</v>
@@ -1780,51 +1804,50 @@
       <c r="D60" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="E60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
-        <v>66</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="E61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="6" t="n">
+      <c r="D62" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>6</v>
@@ -1833,52 +1856,53 @@
         <v>79</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19" t="n">
-        <v>40</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="D64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19" t="n">
-        <v>41</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="20" t="s">
+      <c r="A65" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>46</v>
+      <c r="D65" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>6</v>
@@ -1892,81 +1916,87 @@
       <c r="E66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="19" t="n">
+        <v>40</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="19" t="n">
+        <v>41</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="n">
+    <row r="70" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="6" t="n">
+      <c r="B70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="6" t="s">
+      <c r="E70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="n">
-        <v>39</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>6</v>
@@ -1978,33 +2008,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="21" t="n">
+        <v>67</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>74</v>
+        <v>22</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,26 +2245,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="24"/>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,7 +2277,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="23" t="n">
+      <c r="D2" s="26" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -2260,10 +2329,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -2276,20 +2345,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="27" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="24" t="n">
+      <c r="G9" s="27" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="25" t="n">
+      <c r="J9" s="28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2300,20 +2369,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="26" t="n">
+      <c r="F10" s="29" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="26" t="n">
+      <c r="G10" s="29" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="27" t="n">
+      <c r="H10" s="30" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="26" t="n">
+      <c r="I10" s="29" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="28" t="n">
+      <c r="J10" s="31" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -2328,20 +2397,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="32" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="32" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="29" t="n">
+      <c r="H11" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="29" t="n">
+      <c r="I11" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="30" t="n">
+      <c r="J11" s="33" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -27,16 +27,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
   <si>
     <t>№</t>
   </si>
@@ -315,6 +316,9 @@
   </si>
   <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
+  </si>
+  <si>
+    <t>Паша </t>
   </si>
   <si>
     <t>цена</t>
@@ -741,7 +745,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -934,21 +938,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,9 +2077,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>75</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,26 +2252,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="24"/>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,10 +2336,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -12,32 +12,33 @@
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$E$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$101</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="104">
   <si>
     <t>№</t>
   </si>
@@ -81,6 +82,9 @@
     <t>26.04.2016</t>
   </si>
   <si>
+    <t>Прописать конвертер</t>
+  </si>
+  <si>
     <t>Галя</t>
   </si>
   <si>
@@ -102,6 +106,9 @@
     <t>Добавить ListView для разных единиц</t>
   </si>
   <si>
+    <t>03.06.2016</t>
+  </si>
+  <si>
     <t>Добавить кнопку для рассчета стоимости некоторого количества</t>
   </si>
   <si>
@@ -300,6 +307,12 @@
     <t>При очистке поля не закрашены</t>
   </si>
   <si>
+    <t>Добавить закрашивание цветом кнопки(или карточки) при первом выборе едениц измерения </t>
+  </si>
+  <si>
+    <t>Доавить в очистить очистку едениц измерения</t>
+  </si>
+  <si>
     <t>Разобраться с запуском на разных API</t>
   </si>
   <si>
@@ -316,9 +329,6 @@
   </si>
   <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
-  </si>
-  <si>
-    <t>Паша </t>
   </si>
   <si>
     <t>цена</t>
@@ -427,14 +437,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFF66"/>
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -742,13 +752,13 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D85" activeCellId="0" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="68.3562753036437"/>
@@ -853,29 +863,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>16</v>
@@ -887,26 +894,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -921,29 +928,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -951,237 +958,255 @@
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>1</v>
@@ -1189,216 +1214,221 @@
       <c r="E25" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="D27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" s="9" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="B33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="n">
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="n">
-        <v>26</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="16" t="s">
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>46</v>
-      </c>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="D36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>1</v>
@@ -1410,9 +1440,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>6</v>
@@ -1432,7 +1462,7 @@
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>6</v>
@@ -1450,182 +1480,197 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="B41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
-        <v>68</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
-        <v>69</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="n">
-        <v>70</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
-        <v>71</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="B47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="B48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="B49" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2</v>
@@ -1636,65 +1681,65 @@
       <c r="F50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
+      <c r="A51" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="9" t="n">
+      <c r="B52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
+      <c r="E52" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="6" t="n">
+      <c r="B53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" s="8" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2</v>
@@ -1704,32 +1749,32 @@
       </c>
       <c r="F54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
+    <row r="55" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" s="9" customFormat="true" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
-        <v>36</v>
-      </c>
       <c r="B56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D56" s="6" t="n">
         <v>2</v>
@@ -1741,480 +1786,499 @@
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="n">
+      <c r="A58" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" s="9" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="n">
-        <v>14</v>
-      </c>
       <c r="B59" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D59" s="15" t="n">
         <v>2</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="6" t="n">
+      <c r="A60" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>13</v>
+      <c r="E60" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="E61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="0" t="n">
+      <c r="B63" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
+    <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="6" t="n">
+      <c r="B64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="E64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="0" t="n">
+      <c r="B65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="n">
-        <v>66</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="6" t="n">
+      <c r="B67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19" t="n">
+      <c r="E67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="19" t="n">
         <v>40</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19" t="n">
-        <v>41</v>
-      </c>
       <c r="B68" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D68" s="19" t="n">
         <v>3</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="6" t="n">
+      <c r="A69" s="19" t="n">
+        <v>41</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>11</v>
+      <c r="E69" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D70" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="6" t="s">
+      <c r="E70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="0" t="n">
+      <c r="B74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="n">
-        <v>39</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="21" t="n">
-        <v>67</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>22</v>
-      </c>
       <c r="B75" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" s="0" t="s">
+      <c r="D75" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="21" t="n">
+        <v>67</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>77</v>
+        <v>22</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F101">
+  <autoFilter ref="A1:F100">
     <filterColumn colId="4">
       <customFilters and="true">
         <customFilter operator="**none**" val=""/>
@@ -2252,26 +2316,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="24"/>
       <c r="F1" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,10 +2400,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -32,16 +32,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="113">
   <si>
     <t>№</t>
   </si>
@@ -94,6 +95,12 @@
     <t>Пропадают еденицы измерений при повороте экрана</t>
   </si>
   <si>
+    <t>Убрать все сравнения double с double</t>
+  </si>
+  <si>
+    <t>Убрать лишние потоки при изменении едениц измерения</t>
+  </si>
+  <si>
     <t>Галя</t>
   </si>
   <si>
@@ -259,7 +266,7 @@
     <t>Добавить анимацию удаления вправо при свайпе вправо</t>
   </si>
   <si>
-    <t>Убрать все сравнения double с double</t>
+    <t>разобраться какую сделать надпись на пересчет и куда ее перенести</t>
   </si>
   <si>
     <t>Изменить значения в графе количество и цена на дробные</t>
@@ -328,9 +335,6 @@
     <t>Сделать начальную позицию скролВью, а не сдвиг</t>
   </si>
   <si>
-    <t>Доавить в очистить очистку едениц измерения</t>
-  </si>
-  <si>
     <t>Масштаб и запуск потока должен выполнятся в одном Watcher</t>
   </si>
   <si>
@@ -344,6 +348,9 @@
   </si>
   <si>
     <t>Если горизонтальный поворот убрать фокусировку</t>
+  </si>
+  <si>
+    <t>Добавить в очистить очистку едениц измерения</t>
   </si>
   <si>
     <t>проверить размеры ячеек в row - отличаются от основного экрана</t>
@@ -380,10 +387,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -558,7 +566,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -595,6 +603,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -663,7 +675,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,7 +683,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -679,19 +691,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -779,7 +791,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53:F53"/>
+      <selection pane="topLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -907,108 +919,108 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
         <v>83</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="C11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
@@ -1019,55 +1031,53 @@
       <c r="D13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>27</v>
@@ -1080,12 +1090,12 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>28</v>
@@ -1098,12 +1108,12 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>29</v>
@@ -1118,10 +1128,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>30</v>
@@ -1134,12 +1144,12 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>31</v>
@@ -1152,12 +1162,12 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>32</v>
@@ -1172,10 +1182,10 @@
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>33</v>
@@ -1188,12 +1198,12 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>34</v>
@@ -1208,10 +1218,10 @@
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>35</v>
@@ -1226,10 +1236,10 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>36</v>
@@ -1237,17 +1247,17 @@
       <c r="D25" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>37</v>
@@ -1262,7 +1272,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>6</v>
@@ -1273,14 +1283,14 @@
       <c r="D27" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>6</v>
@@ -1298,7 +1308,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>6</v>
@@ -1309,14 +1319,14 @@
       <c r="D29" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
@@ -1332,9 +1342,9 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" s="9" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>6</v>
@@ -1348,19 +1358,17 @@
       <c r="E31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>1</v>
@@ -1372,33 +1380,33 @@
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>1</v>
@@ -1406,133 +1414,131 @@
       <c r="E34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
-        <v>55</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="D38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
-        <v>68</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>6</v>
@@ -1543,36 +1549,36 @@
       <c r="D41" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>53</v>
+      <c r="E41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
-        <v>70</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="A42" s="10" t="n">
+        <v>68</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>53</v>
+      <c r="D42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
@@ -1583,36 +1589,36 @@
       <c r="D43" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
-        <v>73</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="7" t="s">
+    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>24</v>
+      <c r="D44" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>6</v>
@@ -1623,78 +1629,90 @@
       <c r="D45" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="D46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="B49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" s="6" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>6</v>
@@ -1708,29 +1726,23 @@
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="7" t="s">
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>15</v>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>6</v>
@@ -1744,7 +1756,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>6</v>
@@ -1755,7 +1767,7 @@
       <c r="D53" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -1764,7 +1776,7 @@
     </row>
     <row r="54" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>6</v>
@@ -1779,25 +1791,28 @@
       <c r="F54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="A55" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" s="9" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>6</v>
@@ -1806,120 +1821,118 @@
         <v>74</v>
       </c>
       <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="n">
+      <c r="E57" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="12" t="n">
+      <c r="B59" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" s="9" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="0" t="n">
+      <c r="B62" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
         <v>32</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
-        <v>47</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>6</v>
@@ -1930,13 +1943,13 @@
       <c r="D63" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
@@ -1950,13 +1963,10 @@
       <c r="E64" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>6</v>
@@ -1970,13 +1980,10 @@
       <c r="E65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>6</v>
@@ -1987,16 +1994,16 @@
       <c r="D66" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>49</v>
+      <c r="E66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
@@ -2011,115 +2018,115 @@
         <v>8</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="15" t="n">
+      <c r="A68" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="15" t="n">
+      <c r="B70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15" t="n">
+      <c r="E70" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="15" t="n">
+      <c r="B71" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="E71" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" s="0" t="n">
+      <c r="B72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="0" t="n">
+      <c r="B73" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="n">
-        <v>52</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="F73" s="19"/>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>6</v>
@@ -2130,118 +2137,130 @@
       <c r="D74" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19" t="n">
+    <row r="76" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D75" s="19" t="n">
+      <c r="B77" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E75" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="19" t="n">
+      <c r="E77" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="20" t="n">
         <v>41</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="19" t="n">
+      <c r="B78" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E76" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="21" t="n">
+      <c r="E78" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="22" t="n">
         <v>67</v>
       </c>
-      <c r="B78" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" s="21" t="n">
+      <c r="B79" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="E78" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="n">
+      <c r="E79" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="9" t="n">
+      <c r="B80" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="0" t="n">
-        <v>5</v>
+      <c r="E80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>6</v>
@@ -2253,23 +2272,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>6</v>
@@ -2277,21 +2296,43 @@
       <c r="C83" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="D83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="9" t="n">
+        <v>42649</v>
+      </c>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="E84" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,7 +2437,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A53:F53 F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2408,26 +2449,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="F1" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="F1" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,7 +2481,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="26" t="n">
+      <c r="D2" s="27" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -2492,10 +2533,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -2508,20 +2549,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="27" t="n">
+      <c r="F9" s="28" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="27" t="n">
+      <c r="G9" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="28" t="n">
+      <c r="H9" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="27" t="n">
+      <c r="I9" s="28" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="28" t="n">
+      <c r="J9" s="29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2532,20 +2573,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="30" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="29" t="n">
+      <c r="G10" s="30" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="30" t="n">
+      <c r="H10" s="31" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="29" t="n">
+      <c r="I10" s="30" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="31" t="n">
+      <c r="J10" s="32" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -2560,20 +2601,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="32" t="n">
+      <c r="F11" s="33" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="32" t="n">
+      <c r="G11" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="32" t="n">
+      <c r="H11" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="32" t="n">
+      <c r="I11" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="33" t="n">
+      <c r="J11" s="34" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -33,16 +33,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="114">
   <si>
     <t>№</t>
   </si>
@@ -360,6 +361,9 @@
   </si>
   <si>
     <t>Отмененно</t>
+  </si>
+  <si>
+    <t>Проверить чтобы были одинаковые размеры и масштаб текста</t>
   </si>
   <si>
     <t>цена</t>
@@ -785,13 +789,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
+      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2335,9 +2339,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>86</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,13 +2424,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F100">
-    <filterColumn colId="4">
-      <customFilters and="true">
-        <customFilter operator="**none**" val=""/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F100"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2449,26 +2456,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" s="25"/>
       <c r="F1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,10 +2540,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -34,16 +34,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="117">
   <si>
     <t>№</t>
   </si>
@@ -102,6 +103,12 @@
     <t>Убрать лишние потоки при изменении едениц измерения</t>
   </si>
   <si>
+    <t>Паша </t>
+  </si>
+  <si>
+    <t>Ввести защиту от 0 в поле колво</t>
+  </si>
+  <si>
     <t>Галя</t>
   </si>
   <si>
@@ -270,6 +277,9 @@
     <t>разобраться какую сделать надпись на пересчет и куда ее перенести</t>
   </si>
   <si>
+    <t>Проверить чтобы были одинаковые размеры и масштаб текста</t>
+  </si>
+  <si>
     <t>Изменить значения в графе количество и цена на дробные</t>
   </si>
   <si>
@@ -351,6 +361,9 @@
     <t>Если горизонтальный поворот убрать фокусировку</t>
   </si>
   <si>
+    <t>Удалить Дебаг</t>
+  </si>
+  <si>
     <t>Добавить в очистить очистку едениц измерения</t>
   </si>
   <si>
@@ -361,9 +374,6 @@
   </si>
   <si>
     <t>Отмененно</t>
-  </si>
-  <si>
-    <t>Проверить чтобы были одинаковые размеры и масштаб текста</t>
   </si>
   <si>
     <t>цена</t>
@@ -452,7 +462,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +479,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF66"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -570,7 +586,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,10 +635,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -647,16 +659,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -667,7 +683,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -725,7 +749,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00FF66"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -789,13 +813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
+      <selection pane="topLeft" activeCell="C83" activeCellId="0" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -971,66 +995,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="s">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>88</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
+      <c r="D10" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1</v>
@@ -1039,49 +1060,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>27</v>
@@ -1089,38 +1107,40 @@
       <c r="D16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>12</v>
-      </c>
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>1</v>
@@ -1132,49 +1152,49 @@
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
-        <v>18</v>
-      </c>
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>1</v>
@@ -1186,49 +1206,49 @@
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>24</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>1</v>
@@ -1240,13 +1260,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>1</v>
@@ -1258,13 +1278,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>1</v>
@@ -1276,49 +1296,49 @@
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>1</v>
@@ -1330,81 +1350,79 @@
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
-        <v>37</v>
-      </c>
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
@@ -1415,20 +1433,22 @@
       <c r="D34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>1</v>
@@ -1436,13 +1456,11 @@
       <c r="E35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>6</v>
@@ -1462,33 +1480,33 @@
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
-        <v>55</v>
-      </c>
       <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>1</v>
@@ -1500,9 +1518,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>6</v>
@@ -1522,7 +1540,7 @@
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>6</v>
@@ -1542,7 +1560,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>6</v>
@@ -1557,133 +1575,135 @@
         <v>8</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
+      <c r="A42" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="n">
         <v>68</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="n">
+        <v>70</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
-        <v>69</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="n">
-        <v>70</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
-        <v>71</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+    </row>
+    <row r="47" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>66</v>
@@ -1691,54 +1711,56 @@
       <c r="D48" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" s="6" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
@@ -1746,254 +1768,244 @@
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+      <c r="B53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="B54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
+      <c r="B55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="B56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="B57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="0" t="n">
+      <c r="B59" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="n">
-        <v>23</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="n">
+      <c r="A60" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="6" t="n">
+      <c r="B62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="E62" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="0" t="n">
+      <c r="B63" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="E63" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="0" t="n">
+      <c r="B64" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
+      <c r="E64" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="n">
-        <v>47</v>
-      </c>
       <c r="B65" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D65" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D66" s="6" t="n">
         <v>2</v>
@@ -2001,19 +2013,16 @@
       <c r="E66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D67" s="6" t="n">
         <v>2</v>
@@ -2021,39 +2030,36 @@
       <c r="E67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>51</v>
+      <c r="E68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D69" s="6" t="n">
         <v>2</v>
@@ -2062,305 +2068,335 @@
         <v>8</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="16" t="n">
+      <c r="A70" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" s="16" t="n">
+      <c r="B72" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="n">
+      <c r="E72" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="16" t="n">
+      <c r="B73" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="E73" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="0" t="n">
+      <c r="B74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="0" t="n">
+      <c r="B75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F73" s="19"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="n">
-        <v>52</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D75" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="F75" s="21"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D76" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="20" t="n">
+    <row r="78" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="B77" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="20" t="n">
+      <c r="B79" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="E77" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="20" t="n">
+      <c r="E79" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="22" t="n">
         <v>41</v>
       </c>
-      <c r="B78" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" s="20" t="n">
+      <c r="B80" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22" t="n">
+      <c r="E80" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="22" t="n">
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="24" t="n">
+        <v>67</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="E79" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="n">
+      <c r="E81" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="10" t="n">
+      <c r="B82" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="E82" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" s="0" t="n">
+      <c r="B83" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" s="0" t="n">
+      <c r="B84" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="n">
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="9" t="n">
+      <c r="B86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="9" t="n">
         <v>42649</v>
       </c>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="n">
+      <c r="B87" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F85" s="6" t="s">
+      <c r="B88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>88</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,7 +2460,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F100"/>
+  <autoFilter ref="A1:F100">
+    <filterColumn colId="4">
+      <customFilters and="true">
+        <customFilter operator="**none**" val=""/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2456,26 +2498,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="27"/>
       <c r="F1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,7 +2530,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="27" t="n">
+      <c r="D2" s="29" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -2540,10 +2582,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -2556,20 +2598,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="28" t="n">
+      <c r="F9" s="30" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="28" t="n">
+      <c r="G9" s="30" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="29" t="n">
+      <c r="H9" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="28" t="n">
+      <c r="I9" s="30" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="29" t="n">
+      <c r="J9" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2580,20 +2622,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="30" t="n">
+      <c r="F10" s="32" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="30" t="n">
+      <c r="G10" s="32" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="31" t="n">
+      <c r="H10" s="33" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="30" t="n">
+      <c r="I10" s="32" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="32" t="n">
+      <c r="J10" s="34" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -2608,20 +2650,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="33" t="n">
+      <c r="F11" s="35" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="33" t="n">
+      <c r="G11" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="33" t="n">
+      <c r="H11" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="33" t="n">
+      <c r="I11" s="35" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="34" t="n">
+      <c r="J11" s="36" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -35,16 +35,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="118">
   <si>
     <t>№</t>
   </si>
@@ -103,9 +104,6 @@
     <t>Убрать лишние потоки при изменении едениц измерения</t>
   </si>
   <si>
-    <t>Паша </t>
-  </si>
-  <si>
     <t>Ввести защиту от 0 в поле колво</t>
   </si>
   <si>
@@ -280,6 +278,9 @@
     <t>Проверить чтобы были одинаковые размеры и масштаб текста</t>
   </si>
   <si>
+    <t>Нужно сделать так, чтобы свободно влезало три поля</t>
+  </si>
+  <si>
     <t>Изменить значения в графе количество и цена на дробные</t>
   </si>
   <si>
@@ -362,6 +363,9 @@
   </si>
   <si>
     <t>Удалить Дебаг</t>
+  </si>
+  <si>
+    <t>Потестить единицы измерения (глюкануло один раз)</t>
   </si>
   <si>
     <t>Добавить в очистить очистку едениц измерения</t>
@@ -586,7 +590,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -633,6 +637,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -819,7 +827,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C83" activeCellId="0" sqref="C83"/>
+      <selection pane="topLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -978,7 +986,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,29 +1003,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>88</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>42681</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -1031,10 +1045,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -1051,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1</v>
@@ -1068,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>1</v>
@@ -1082,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -1102,16 +1116,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,10 +1133,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>1</v>
@@ -1140,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>1</v>
@@ -1158,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>1</v>
@@ -1173,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>1</v>
@@ -1191,10 +1205,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>1</v>
@@ -1209,10 +1223,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>1</v>
@@ -1227,10 +1241,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>1</v>
@@ -1245,10 +1259,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>1</v>
@@ -1263,10 +1277,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>1</v>
@@ -1281,10 +1295,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>1</v>
@@ -1299,10 +1313,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>1</v>
@@ -1320,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>1</v>
@@ -1338,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>1</v>
@@ -1356,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>1</v>
@@ -1366,7 +1380,7 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="13" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>35</v>
       </c>
@@ -1374,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>1</v>
@@ -1392,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>1</v>
@@ -1410,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="6" t="n">
         <v>1</v>
@@ -1428,16 +1442,16 @@
         <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D34" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>1</v>
@@ -1466,16 +1480,16 @@
         <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D36" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,16 +1500,16 @@
         <v>6</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>1</v>
@@ -1515,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,16 +1540,16 @@
         <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,16 +1560,16 @@
         <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D40" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,16 +1580,16 @@
         <v>6</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,36 +1600,36 @@
         <v>6</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="n">
+        <v>68</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="n">
-        <v>68</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>57</v>
+      <c r="D43" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,36 +1640,36 @@
         <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="n">
-        <v>70</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>57</v>
+      <c r="D45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D46" s="6" t="n">
         <v>1</v>
@@ -1675,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>1</v>
@@ -1695,7 +1709,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,13 +1720,13 @@
         <v>6</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="D48" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F48" s="8"/>
     </row>
@@ -1721,16 +1735,16 @@
         <v>17</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" s="6"/>
     </row>
@@ -1739,16 +1753,16 @@
         <v>26</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="8"/>
     </row>
@@ -1760,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
@@ -1774,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>1</v>
@@ -1788,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>1</v>
@@ -1802,7 +1816,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="6" t="n">
         <v>1</v>
@@ -1822,13 +1836,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="56" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="13" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>81</v>
       </c>
@@ -1836,7 +1850,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="6" t="n">
         <v>1</v>
@@ -1856,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
@@ -1870,40 +1884,38 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E59" s="0"/>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>2</v>
@@ -1913,65 +1925,65 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="n">
+      <c r="A61" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="16" t="s">
+      <c r="B62" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="15" t="n">
+      <c r="D62" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
+      <c r="E62" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="B63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="6" t="n">
+      <c r="D63" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>2</v>
@@ -1980,32 +1992,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="n">
+    <row r="65" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D65" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D66" s="6" t="n">
         <v>2</v>
@@ -2016,70 +2028,67 @@
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>13</v>
+      <c r="E68" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="6" t="s">
+      <c r="E69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" s="6" t="n">
         <v>2</v>
@@ -2088,18 +2097,18 @@
         <v>8</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="6" t="n">
         <v>2</v>
@@ -2108,101 +2117,101 @@
         <v>8</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="n">
+      <c r="A72" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B72" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="19" t="s">
+      <c r="B73" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D72" s="18" t="n">
+      <c r="D73" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E72" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18" t="n">
+      <c r="E73" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="B73" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="19" t="s">
+      <c r="B74" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="18" t="n">
+      <c r="D74" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E73" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="E74" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="n">
-        <v>52</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" s="6" t="n">
         <v>3</v>
@@ -2210,127 +2219,133 @@
       <c r="E77" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>11</v>
+      <c r="F77" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D78" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="6" t="s">
+      <c r="E78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22" t="n">
+    <row r="79" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="23" t="s">
+      <c r="B80" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="22" t="n">
+      <c r="D80" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E80" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="25" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22" t="n">
-        <v>41</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24" t="n">
-        <v>67</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="25" t="s">
+      <c r="B82" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D81" s="24" t="n">
+      <c r="D82" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E82" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F81" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="n">
+      <c r="F82" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="13" t="s">
+      <c r="B83" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="12" t="n">
+      <c r="D83" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>5</v>
+      <c r="E83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>5</v>
@@ -2338,75 +2353,93 @@
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B86" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="n">
+      <c r="D86" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="9" t="n">
+      <c r="B88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="9" t="n">
         <v>42649</v>
       </c>
-      <c r="F86" s="8"/>
-    </row>
-    <row r="87" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="n">
+      <c r="B89" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="6" t="s">
+      <c r="B90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="E90" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,26 +2531,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="F1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="G1" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="F1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="28" t="s">
         <v>114</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,7 +2563,7 @@
       <c r="C2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="29" t="n">
+      <c r="D2" s="30" t="n">
         <v>0.08</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -2582,10 +2615,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
@@ -2598,20 +2631,20 @@
       <c r="E9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="30" t="n">
+      <c r="F9" s="31" t="n">
         <f aca="false">D9/E9</f>
         <v>40</v>
       </c>
-      <c r="G9" s="30" t="n">
+      <c r="G9" s="31" t="n">
         <v>50</v>
       </c>
-      <c r="H9" s="31" t="n">
+      <c r="H9" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="30" t="n">
+      <c r="I9" s="31" t="n">
         <v>100</v>
       </c>
-      <c r="J9" s="31" t="n">
+      <c r="J9" s="32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2622,20 +2655,20 @@
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="32" t="n">
+      <c r="F10" s="33" t="n">
         <f aca="false">D10/E10</f>
         <v>30</v>
       </c>
-      <c r="G10" s="32" t="n">
+      <c r="G10" s="33" t="n">
         <v>66.67</v>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="H10" s="34" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I10" s="32" t="n">
+      <c r="I10" s="33" t="n">
         <v>75</v>
       </c>
-      <c r="J10" s="34" t="n">
+      <c r="J10" s="35" t="n">
         <v>0.25</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -2650,20 +2683,20 @@
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="35" t="n">
+      <c r="F11" s="36" t="n">
         <f aca="false">D11/E11</f>
         <v>20</v>
       </c>
-      <c r="G11" s="35" t="n">
+      <c r="G11" s="36" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="35" t="n">
+      <c r="H11" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="35" t="n">
+      <c r="I11" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="36" t="n">
+      <c r="J11" s="37" t="n">
         <v>0.5</v>
       </c>
       <c r="M11" s="0" t="n">

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="120">
   <si>
     <t>№</t>
   </si>
@@ -98,270 +98,270 @@
     <t>Пропадают еденицы измерений при повороте экрана</t>
   </si>
   <si>
+    <t>Убрать лишние потоки при изменении едениц измерения</t>
+  </si>
+  <si>
+    <t>Ввести защиту от 0 в поле колво</t>
+  </si>
+  <si>
+    <t>Галя</t>
+  </si>
+  <si>
+    <t>Прочитай и отметь (Тест)</t>
+  </si>
+  <si>
+    <t>Изменить наименования вью в дополнительной Layout row</t>
+  </si>
+  <si>
+    <t>Создать коллекцию и поисковик для результатов строк</t>
+  </si>
+  <si>
+    <t>Выделять цветом Лучший вариант</t>
+  </si>
+  <si>
+    <t>Изменить поля UI (заменить spinner на button; добавить кнопки очистить, добавить; добавить кнопку удалить строчку; добавить еще одну пустую строчку; объединить строчки процент и стоимость за единицу в результат)</t>
+  </si>
+  <si>
+    <t>Добавить ListView для разных единиц</t>
+  </si>
+  <si>
+    <t>03.06.2016</t>
+  </si>
+  <si>
+    <t>Добавить кнопку для рассчета стоимости некоторого количества</t>
+  </si>
+  <si>
+    <t>Изменить ссылки на несуществующие ID (изменила ID, программа ругается на java-файлы, ссылки на несуществующие ID)</t>
+  </si>
+  <si>
+    <t>Поставить строчку рассчета некоторого количесвта сверху</t>
+  </si>
+  <si>
+    <t>Добавить картнику на кнопку убрать строчку, ругается на параметр left</t>
+  </si>
+  <si>
+    <t>Добавить поле экономия, изменить поле количество на кол-во, переименовать результат</t>
+  </si>
+  <si>
+    <t>Переделать цвета на ссылки</t>
+  </si>
+  <si>
+    <t>сделать отступы в ячейках</t>
+  </si>
+  <si>
+    <t>добавить корневой лаяут и поместить туда вывести rl_main и row c кнопками</t>
+  </si>
+  <si>
+    <t>Продумать размер шрифта</t>
+  </si>
+  <si>
+    <t>Продумать кнопку удалить строчку</t>
+  </si>
+  <si>
+    <t>Сделать границы ячеек цена за ед. и экономия</t>
+  </si>
+  <si>
+    <t>Сделать защиту от отрицательных чисел</t>
+  </si>
+  <si>
+    <t>При повороте экрана Очистка не работает</t>
+  </si>
+  <si>
+    <t>Восстановить Runnable</t>
+  </si>
+  <si>
+    <t>Сделать удалялку через сдвиг строки</t>
+  </si>
+  <si>
+    <t>Проверить наличие одного потока при повороте экрана</t>
+  </si>
+  <si>
+    <t>Пустые строки не должны учитываться при подсчете результата</t>
+  </si>
+  <si>
+    <t>Сменить цвет выделяемого поля</t>
+  </si>
+  <si>
+    <t>жду ответ о Гали</t>
+  </si>
+  <si>
+    <t>Как останавливать поток</t>
+  </si>
+  <si>
+    <t>Уползла верстка на моем экране и экране Гали</t>
+  </si>
+  <si>
+    <t>жду ответ от Гали</t>
+  </si>
+  <si>
+    <t>Включать перерисовывалку бекГраунда только в крайнем случае</t>
+  </si>
+  <si>
+    <t>22.04.2016</t>
+  </si>
+  <si>
+    <t>19.05.2016</t>
+  </si>
+  <si>
+    <t>Приложение подтормаживает,  останавливать поток в момент нажатия клавиши клавиатуры и скроллинга</t>
+  </si>
+  <si>
+    <t>27.04.2016</t>
+  </si>
+  <si>
+    <t>Сохранить вид Activity если приложение закрылось</t>
+  </si>
+  <si>
+    <t>23/05/2016</t>
+  </si>
+  <si>
+    <t>Добавить расчет на кол-во в поле расчитать на кол-во</t>
+  </si>
+  <si>
+    <t>24/05/2016</t>
+  </si>
+  <si>
+    <t>Добавить разные единицы измерения</t>
+  </si>
+  <si>
+    <t>Разобраться с цветом при загрузке</t>
+  </si>
+  <si>
+    <t>Разобраться с тем чтобы учитывались сверх минимальные значения</t>
+  </si>
+  <si>
+    <t>Разобраться чтобы поля при запуске были пустыми</t>
+  </si>
+  <si>
+    <t>Изменить значения с абсолютных величин на относительные В CARDVIEW</t>
+  </si>
+  <si>
+    <t>Разобраться с форматом double – автоматическое добавление и удаление лишних нулей</t>
+  </si>
+  <si>
+    <t>Добавить расчет метод go() для создаваемых строк.</t>
+  </si>
+  <si>
+    <t>отменено</t>
+  </si>
+  <si>
+    <t>Продумать цвета для полей и записать в Colors</t>
+  </si>
+  <si>
+    <t>Сделать кнопки добавить и очистить</t>
+  </si>
+  <si>
+    <t>Нарисовать ярлычок</t>
+  </si>
+  <si>
+    <t>Пересчет лишних нулей в сокращения – (млн., тыс и т.д.)</t>
+  </si>
+  <si>
+    <t>Вывести проценты в единицы измерения</t>
+  </si>
+  <si>
+    <t>добавить изменение едениц измерения в поток</t>
+  </si>
+  <si>
+    <t>Сделать нормальные кликкеры на поля и кнопки</t>
+  </si>
+  <si>
+    <t>Добавить анимацию удаления вправо при свайпе вправо</t>
+  </si>
+  <si>
+    <t>разобраться какую сделать надпись на пересчет и куда ее перенести</t>
+  </si>
+  <si>
+    <t>Проверить чтобы были одинаковые размеры и масштаб текста</t>
+  </si>
+  <si>
+    <t>Нужно сделать так, чтобы свободно влезало три поля</t>
+  </si>
+  <si>
+    <t>Изменить значения в графе количество и цена на дробные</t>
+  </si>
+  <si>
+    <t>В ячейке Цена за ед. сократить количество знаков после запятой до сотых</t>
+  </si>
+  <si>
+    <t>Сделать фокус на ячейку et_price1</t>
+  </si>
+  <si>
+    <t>Выделить наиболее удачный вариант цвнтом colorVariant1</t>
+  </si>
+  <si>
+    <t>Изменить кнопку удалить в Row</t>
+  </si>
+  <si>
+    <t>Сделать отступы</t>
+  </si>
+  <si>
+    <t>При выделении вариантов цветом сделать чтобы поле edPrice и edQuantity также закрашивалось</t>
+  </si>
+  <si>
+    <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
+  </si>
+  <si>
+    <t>Разобраться что если ввести большие числа</t>
+  </si>
+  <si>
+    <t>Придумать текст для рассчета некоторого количества</t>
+  </si>
+  <si>
+    <t>при повороте экрана теряются цвета карточек</t>
+  </si>
+  <si>
+    <t>Сделать анимацию удалялки</t>
+  </si>
+  <si>
+    <t>Сделать так чтобы пустые поля не участвовали в расчетах</t>
+  </si>
+  <si>
+    <t>Продумать дизайн</t>
+  </si>
+  <si>
+    <t>Заполнить LinerView для разных единиц</t>
+  </si>
+  <si>
+    <t>Сделать невозможным двойной запуск приложения</t>
+  </si>
+  <si>
+    <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
+  </si>
+  <si>
+    <t>Сменить цвет фокусируемого поля</t>
+  </si>
+  <si>
+    <t>При очистке в полях появляются фантомы, избавиться от них</t>
+  </si>
+  <si>
+    <t>При очистке поля не закрашены</t>
+  </si>
+  <si>
+    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
+  </si>
+  <si>
+    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
+  </si>
+  <si>
+    <t>Масштаб и запуск потока должен выполнятся в одном Watcher</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
+  </si>
+  <si>
+    <t>Разобраться с запуском на разных API</t>
+  </si>
+  <si>
+    <t>Если горизонтальный поворот убрать фокусировку</t>
+  </si>
+  <si>
     <t>Убрать все сравнения double с double</t>
   </si>
   <si>
-    <t>Убрать лишние потоки при изменении едениц измерения</t>
-  </si>
-  <si>
-    <t>Ввести защиту от 0 в поле колво</t>
-  </si>
-  <si>
-    <t>Галя</t>
-  </si>
-  <si>
-    <t>Прочитай и отметь (Тест)</t>
-  </si>
-  <si>
-    <t>Изменить наименования вью в дополнительной Layout row</t>
-  </si>
-  <si>
-    <t>Создать коллекцию и поисковик для результатов строк</t>
-  </si>
-  <si>
-    <t>Выделять цветом Лучший вариант</t>
-  </si>
-  <si>
-    <t>Изменить поля UI (заменить spinner на button; добавить кнопки очистить, добавить; добавить кнопку удалить строчку; добавить еще одну пустую строчку; объединить строчки процент и стоимость за единицу в результат)</t>
-  </si>
-  <si>
-    <t>Добавить ListView для разных единиц</t>
-  </si>
-  <si>
-    <t>03.06.2016</t>
-  </si>
-  <si>
-    <t>Добавить кнопку для рассчета стоимости некоторого количества</t>
-  </si>
-  <si>
-    <t>Изменить ссылки на несуществующие ID (изменила ID, программа ругается на java-файлы, ссылки на несуществующие ID)</t>
-  </si>
-  <si>
-    <t>Поставить строчку рассчета некоторого количесвта сверху</t>
-  </si>
-  <si>
-    <t>Добавить картнику на кнопку убрать строчку, ругается на параметр left</t>
-  </si>
-  <si>
-    <t>Добавить поле экономия, изменить поле количество на кол-во, переименовать результат</t>
-  </si>
-  <si>
-    <t>Переделать цвета на ссылки</t>
-  </si>
-  <si>
-    <t>сделать отступы в ячейках</t>
-  </si>
-  <si>
-    <t>добавить корневой лаяут и поместить туда вывести rl_main и row c кнопками</t>
-  </si>
-  <si>
-    <t>Продумать размер шрифта</t>
-  </si>
-  <si>
-    <t>Продумать кнопку удалить строчку</t>
-  </si>
-  <si>
-    <t>Сделать границы ячеек цена за ед. и экономия</t>
-  </si>
-  <si>
-    <t>Сделать защиту от отрицательных чисел</t>
-  </si>
-  <si>
-    <t>При повороте экрана Очистка не работает</t>
-  </si>
-  <si>
-    <t>Восстановить Runnable</t>
-  </si>
-  <si>
-    <t>Сделать удалялку через сдвиг строки</t>
-  </si>
-  <si>
-    <t>Проверить наличие одного потока при повороте экрана</t>
-  </si>
-  <si>
-    <t>Пустые строки не должны учитываться при подсчете результата</t>
-  </si>
-  <si>
-    <t>Сменить цвет выделяемого поля</t>
-  </si>
-  <si>
-    <t>жду ответ о Гали</t>
-  </si>
-  <si>
-    <t>Как останавливать поток</t>
-  </si>
-  <si>
-    <t>Уползла верстка на моем экране и экране Гали</t>
-  </si>
-  <si>
-    <t>жду ответ от Гали</t>
-  </si>
-  <si>
-    <t>Включать перерисовывалку бекГраунда только в крайнем случае</t>
-  </si>
-  <si>
-    <t>22.04.2016</t>
-  </si>
-  <si>
-    <t>19.05.2016</t>
-  </si>
-  <si>
-    <t>Приложение подтормаживает,  останавливать поток в момент нажатия клавиши клавиатуры и скроллинга</t>
-  </si>
-  <si>
-    <t>27.04.2016</t>
-  </si>
-  <si>
-    <t>Сохранить вид Activity если приложение закрылось</t>
-  </si>
-  <si>
-    <t>23/05/2016</t>
-  </si>
-  <si>
-    <t>Добавить расчет на кол-во в поле расчитать на кол-во</t>
-  </si>
-  <si>
-    <t>24/05/2016</t>
-  </si>
-  <si>
-    <t>Добавить разные единицы измерения</t>
-  </si>
-  <si>
-    <t>Разобраться с цветом при загрузке</t>
-  </si>
-  <si>
-    <t>Разобраться с тем чтобы учитывались сверх минимальные значения</t>
-  </si>
-  <si>
-    <t>Разобраться чтобы поля при запуске были пустыми</t>
-  </si>
-  <si>
-    <t>Изменить значения с абсолютных величин на относительные В CARDVIEW</t>
-  </si>
-  <si>
-    <t>Разобраться с форматом double – автоматическое добавление и удаление лишних нулей</t>
-  </si>
-  <si>
-    <t>Добавить расчет метод go() для создаваемых строк.</t>
-  </si>
-  <si>
-    <t>отменено</t>
-  </si>
-  <si>
-    <t>Продумать цвета для полей и записать в Colors</t>
-  </si>
-  <si>
-    <t>Сделать кнопки добавить и очистить</t>
-  </si>
-  <si>
-    <t>Нарисовать ярлычок</t>
-  </si>
-  <si>
-    <t>Пересчет лишних нулей в сокращения – (млн., тыс и т.д.)</t>
-  </si>
-  <si>
-    <t>Вывести проценты в единицы измерения</t>
-  </si>
-  <si>
-    <t>добавить изменение едениц измерения в поток</t>
-  </si>
-  <si>
-    <t>Сделать нормальные кликкеры на поля и кнопки</t>
-  </si>
-  <si>
-    <t>Добавить анимацию удаления вправо при свайпе вправо</t>
-  </si>
-  <si>
-    <t>разобраться какую сделать надпись на пересчет и куда ее перенести</t>
-  </si>
-  <si>
-    <t>Проверить чтобы были одинаковые размеры и масштаб текста</t>
-  </si>
-  <si>
-    <t>Нужно сделать так, чтобы свободно влезало три поля</t>
-  </si>
-  <si>
-    <t>Изменить значения в графе количество и цена на дробные</t>
-  </si>
-  <si>
-    <t>В ячейке Цена за ед. сократить количество знаков после запятой до сотых</t>
-  </si>
-  <si>
-    <t>Сделать фокус на ячейку et_price1</t>
-  </si>
-  <si>
-    <t>Выделить наиболее удачный вариант цвнтом colorVariant1</t>
-  </si>
-  <si>
-    <t>Изменить кнопку удалить в Row</t>
-  </si>
-  <si>
-    <t>Сделать отступы</t>
-  </si>
-  <si>
-    <t>При выделении вариантов цветом сделать чтобы поле edPrice и edQuantity также закрашивалось</t>
-  </si>
-  <si>
-    <t>Разобраться почему нужна засыпалка на 10 милисекунд</t>
-  </si>
-  <si>
-    <t>Разобраться что если ввести большие числа</t>
-  </si>
-  <si>
-    <t>Придумать текст для рассчета некоторого количества</t>
-  </si>
-  <si>
-    <t>при повороте экрана теряются цвета карточек</t>
-  </si>
-  <si>
-    <t>Сделать анимацию удалялки</t>
-  </si>
-  <si>
-    <t>Сделать так чтобы пустые поля не участвовали в расчетах</t>
-  </si>
-  <si>
-    <t>Продумать дизайн</t>
-  </si>
-  <si>
-    <t>Заполнить LinerView для разных единиц</t>
-  </si>
-  <si>
-    <t>Сделать невозможным двойной запуск приложения</t>
-  </si>
-  <si>
-    <t>Уточнить правильность своего расчета процент потери или процент во сколько раз дороже</t>
-  </si>
-  <si>
-    <t>Сменить цвет фокусируемого поля</t>
-  </si>
-  <si>
-    <t>При очистке в полях появляются фантомы, избавиться от них</t>
-  </si>
-  <si>
-    <t>При очистке поля не закрашены</t>
-  </si>
-  <si>
-    <t>Чтобы строчка возвращалась в первоначальное положение, если не дотянулась до 0</t>
-  </si>
-  <si>
-    <t>Сделать начальную позицию скролВью, а не сдвиг</t>
-  </si>
-  <si>
-    <t>Масштаб и запуск потока должен выполнятся в одном Watcher</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Разобраться почкму закрашивается кнопка ед(проверить на реальном устройстве)</t>
-  </si>
-  <si>
-    <t>Разобраться с запуском на разных API</t>
-  </si>
-  <si>
-    <t>Если горизонтальный поворот убрать фокусировку</t>
-  </si>
-  <si>
     <t>Удалить Дебаг</t>
   </si>
   <si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>Отмененно</t>
+  </si>
+  <si>
+    <t>Паша </t>
+  </si>
+  <si>
+    <t>добавить в поле Quantity единицу по умолчанию и удалялку при первом нажатии</t>
   </si>
   <si>
     <t>цена</t>
@@ -827,7 +833,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
+      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -977,7 +983,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
@@ -986,49 +992,52 @@
         <v>17</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>88</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
-        <v>88</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="E9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="12" t="n">
-        <v>42681</v>
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>21</v>
@@ -1040,26 +1049,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="0" t="s">
+    <row r="12" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
@@ -1074,66 +1083,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7" t="s">
+    <row r="14" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
+      <c r="D15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>28</v>
@@ -1146,9 +1156,9 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>6</v>
@@ -1166,10 +1176,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>30</v>
@@ -1182,12 +1192,12 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>31</v>
@@ -1200,12 +1210,12 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>32</v>
@@ -1220,10 +1230,10 @@
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>33</v>
@@ -1236,12 +1246,12 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>34</v>
@@ -1254,12 +1264,12 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>35</v>
@@ -1274,10 +1284,10 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>36</v>
@@ -1292,10 +1302,10 @@
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>37</v>
@@ -1310,10 +1320,10 @@
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>38</v>
@@ -1321,14 +1331,14 @@
       <c r="D27" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>6</v>
@@ -1339,14 +1349,14 @@
       <c r="D28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>6</v>
@@ -1364,7 +1374,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
@@ -1382,7 +1392,7 @@
     </row>
     <row r="31" s="13" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>6</v>
@@ -1393,14 +1403,14 @@
       <c r="D31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>6</v>
@@ -1411,14 +1421,14 @@
       <c r="D32" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
@@ -1429,34 +1439,34 @@
       <c r="D33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>6</v>
@@ -1470,17 +1480,19 @@
       <c r="E35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>1</v>
@@ -1489,38 +1501,38 @@
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>1</v>
@@ -1529,38 +1541,38 @@
         <v>8</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="6" t="n">
         <v>1</v>
@@ -1569,112 +1581,112 @@
         <v>8</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="n">
+        <v>68</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="D43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
-        <v>61</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
-        <v>68</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
-        <v>69</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
-        <v>70</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>6</v>
@@ -1689,12 +1701,12 @@
         <v>8</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>6</v>
@@ -1705,37 +1717,35 @@
       <c r="D47" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="E47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>67</v>
@@ -1744,31 +1754,29 @@
         <v>1</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" s="6" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" s="6" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="8"/>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>6</v>
@@ -1782,7 +1790,7 @@
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>6</v>
@@ -1794,77 +1802,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" s="13" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" s="8" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" s="13" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>6</v>
@@ -1876,43 +1888,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="0" t="s">
         <v>76</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="13" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="0"/>
+        <v>2</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>78</v>
@@ -1925,62 +1939,62 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="n">
-        <v>23</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="17" t="s">
+      <c r="A62" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="16" t="n">
+      <c r="D62" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="A63" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="6" t="n">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>82</v>
@@ -1992,26 +2006,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="1" t="s">
+    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>6</v>
@@ -2028,7 +2042,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
@@ -2039,13 +2053,13 @@
       <c r="D67" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>6</v>
@@ -2056,13 +2070,16 @@
       <c r="D68" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>8</v>
+      <c r="E68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>6</v>
@@ -2073,16 +2090,16 @@
       <c r="D69" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="8" t="s">
+      <c r="E69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
@@ -2097,12 +2114,12 @@
         <v>8</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>6</v>
@@ -2117,35 +2134,32 @@
         <v>8</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="n">
-        <v>66</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="A72" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="6" t="n">
+      <c r="D72" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>56</v>
+      <c r="E72" s="21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="19" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>91</v>
@@ -2154,29 +2168,26 @@
         <v>2</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="19" t="n">
+      <c r="D74" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E74" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>6</v>
@@ -2187,25 +2198,31 @@
       <c r="D75" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F76" s="22"/>
+      <c r="D76" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>6</v>
@@ -2219,13 +2236,13 @@
       <c r="E77" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>49</v>
+      <c r="F77" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>6</v>
@@ -2236,36 +2253,33 @@
       <c r="D78" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="E78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="n">
-        <v>59</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="7" t="s">
+    <row r="79" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="23" t="n">
+        <v>40</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="6" t="n">
+      <c r="D79" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B80" s="23" t="s">
         <v>6</v>
@@ -2277,69 +2291,66 @@
         <v>3</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="23" t="n">
-        <v>41</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="24" t="s">
+      <c r="A81" s="25" t="n">
+        <v>67</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="25" t="n">
-        <v>67</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="26" t="s">
+      <c r="D81" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D82" s="25" t="n">
+      <c r="F81" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="E82" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="14" t="s">
+      <c r="E82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="13" t="n">
+      <c r="D83" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>6</v>
@@ -2353,7 +2364,7 @@
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
@@ -2362,7 +2373,7 @@
         <v>104</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,7 +2427,7 @@
         <v>22</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>108</v>
@@ -2442,9 +2453,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>91</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,26 +2551,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="28"/>
       <c r="F1" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,10 +2635,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -36,16 +36,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Лист1!$A$1:$E$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="121">
   <si>
     <t>№</t>
   </si>
@@ -278,6 +279,15 @@
     <t>Нужно сделать так, чтобы свободно влезало три поля</t>
   </si>
   <si>
+    <t>добавить в поле Quantity единицу по умолчанию и удалялку при первом нажатии</t>
+  </si>
+  <si>
+    <t>Паша </t>
+  </si>
+  <si>
+    <t>Разобраться с материальным дизайном полей</t>
+  </si>
+  <si>
     <t>Изменить значения в графе количество и цена на дробные</t>
   </si>
   <si>
@@ -378,12 +388,6 @@
   </si>
   <si>
     <t>Отмененно</t>
-  </si>
-  <si>
-    <t>Паша </t>
-  </si>
-  <si>
-    <t>добавить в поле Quantity единицу по умолчанию и удалялку при первом нажатии</t>
   </si>
   <si>
     <t>цена</t>
@@ -833,7 +837,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
+      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1858,21 +1862,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" s="13" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" s="13" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
         <v>85</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
+      <c r="D56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>42711</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -1902,170 +1910,165 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="13" customFormat="true" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="13" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E59" s="0"/>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="0" t="n">
+      <c r="B62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="n">
+      <c r="E62" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="16" t="n">
+      <c r="B63" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E61" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
+      <c r="E63" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="6" t="n">
+      <c r="B64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="E64" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B65" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="0" t="n">
+      <c r="C65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="E65" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B66" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="0" t="n">
+      <c r="C66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="n">
+      <c r="E66" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="n">
-        <v>36</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="n">
-        <v>47</v>
-      </c>
       <c r="B67" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D67" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D68" s="6" t="n">
         <v>2</v>
@@ -2073,19 +2076,16 @@
       <c r="E68" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D69" s="6" t="n">
         <v>2</v>
@@ -2093,39 +2093,36 @@
       <c r="E69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D70" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>51</v>
+      <c r="E70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D71" s="6" t="n">
         <v>2</v>
@@ -2134,342 +2131,363 @@
         <v>8</v>
       </c>
       <c r="F71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="19" t="n">
+    <row r="74" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B74" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="19" t="n">
+      <c r="C74" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E74" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19" t="n">
+    <row r="75" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B75" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D73" s="19" t="n">
+      <c r="C75" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E75" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="0" t="n">
+      <c r="B76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D75" s="0" t="n">
+      <c r="B77" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="n">
-        <v>52</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="n">
-        <v>53</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="F77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D78" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="23" t="n">
+    <row r="80" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="B79" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="23" t="n">
+      <c r="B81" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E81" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="23" t="n">
+    <row r="82" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D80" s="23" t="n">
+      <c r="B82" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E82" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="25" t="n">
+    <row r="83" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="25" t="n">
         <v>67</v>
       </c>
-      <c r="B81" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="25" t="n">
+      <c r="B83" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="E81" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" s="25" t="s">
+      <c r="E83" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="n">
+    <row r="84" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" s="13" t="n">
+      <c r="B84" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="E82" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="13" t="s">
+      <c r="E84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D87" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="n">
+      <c r="B89" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="9" t="n">
+      <c r="B90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="9" t="n">
         <v>42649</v>
       </c>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B91" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6" t="n">
+      <c r="C91" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="B92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>92</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,26 +2569,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="28"/>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,10 +2653,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>

--- a/Плановые мероприятия.xlsx
+++ b/Плановые мероприятия.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="123">
   <si>
     <t>№</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Пропадают еденицы измерений при повороте экрана</t>
   </si>
   <si>
-    <t>Убрать лишние потоки при изменении едениц измерения</t>
+    <t>Убрать лишние потоки при изменении единиц измерения</t>
   </si>
   <si>
     <t>Ввести защиту от 0 в поле колво</t>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>Отмененно</t>
+  </si>
+  <si>
+    <t>Пропало появление клавиатуры при фокусировке</t>
+  </si>
+  <si>
+    <t>Теряются единицы измерения (Глюк) При повороте экрана после создания, но не редактирования новой строчки</t>
   </si>
   <si>
     <t>цена</t>
@@ -837,7 +843,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2490,14 +2496,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>94</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,26 +2593,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="28"/>
       <c r="F1" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,10 +2677,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>96</v>
